--- a/工作日志/2020年工作日志-王中意（新）.xlsx
+++ b/工作日志/2020年工作日志-王中意（新）.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3173" uniqueCount="2969">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3377" uniqueCount="3167">
   <si>
     <t>日期</t>
   </si>
@@ -8924,6 +8924,600 @@
   </si>
   <si>
     <t>https://mip.bb454.com/bdf/bdfxl/8162.html</t>
+  </si>
+  <si>
+    <t>大家注意，白癜风的病因有这几个</t>
+  </si>
+  <si>
+    <t>https://wap.kkk2222.cn/bingyin/126.html</t>
+  </si>
+  <si>
+    <t>得了白癜风平时要怎么保养</t>
+  </si>
+  <si>
+    <t>https://wap.kkk2222.cn/huli/127.html</t>
+  </si>
+  <si>
+    <t>贵州白癜风医院治疗白癜风怎么样</t>
+  </si>
+  <si>
+    <t>https://www.dorunlight.com/bdfys/473.html</t>
+  </si>
+  <si>
+    <t>https://m.dorunlight.com/bdfys/473.html?1587964959</t>
+  </si>
+  <si>
+    <t>白癜风有哪些症状?大家一定要记住</t>
+  </si>
+  <si>
+    <t>https://www.dorunlight.com/bdfwh/474.html</t>
+  </si>
+  <si>
+    <t>https://m.dorunlight.com/bdfwh/474.html?1587964961</t>
+  </si>
+  <si>
+    <t>治疗白癜风在贵州哪里治疗</t>
+  </si>
+  <si>
+    <t>https://www.cntfbf.com/bdf/bdfzl/3440.html</t>
+  </si>
+  <si>
+    <t>https://m.cntfbf.com/bdfjb/bdfzl/386.html</t>
+  </si>
+  <si>
+    <t>如何护理白癫风患者</t>
+  </si>
+  <si>
+    <t>https://www.cntfbf.com/bdf/bdfzl/3441.html</t>
+  </si>
+  <si>
+    <t>https://m.cntfbf.com/bdfjb/bdfzl/387.html</t>
+  </si>
+  <si>
+    <t>如何避免白癜风到处扩散</t>
+  </si>
+  <si>
+    <t>https://www.taolch.com/bdfzl/326.html</t>
+  </si>
+  <si>
+    <t>https://m.taolch.com/bdfzl/326.html</t>
+  </si>
+  <si>
+    <t>白癜风治疗需要多少钱</t>
+  </si>
+  <si>
+    <t>https://www.taolch.com/bdfzl/327.html</t>
+  </si>
+  <si>
+    <t>https://m.taolch.com/bdfzl/327.html</t>
+  </si>
+  <si>
+    <t>白癜风如果不治疗会造成什么危害</t>
+  </si>
+  <si>
+    <t>https://www.izwf.com/bdf/bdfcs/4846.html</t>
+  </si>
+  <si>
+    <t>https://m.izwf.com/bdf/bdfcs/4846.html</t>
+  </si>
+  <si>
+    <t>我们应该如何预防白癜风</t>
+  </si>
+  <si>
+    <t>https://www.izwf.com/bdf/bdfyf/4847.html</t>
+  </si>
+  <si>
+    <t>https://m.izwf.com/bdf/bdfyf/4847.html</t>
+  </si>
+  <si>
+    <t>运动后白癜风患者需要注意什么</t>
+  </si>
+  <si>
+    <t>https://www.bdfyyy.com/bdf/bdfcs/4835.html</t>
+  </si>
+  <si>
+    <t>https://3g.bdfyyy.com/bdf/bdfcs/4835.html</t>
+  </si>
+  <si>
+    <t>诊断白癜风的方法有哪些</t>
+  </si>
+  <si>
+    <t>https://www.bdfyyy.com/bdf/bdfzd/4836.html</t>
+  </si>
+  <si>
+    <t>https://3g.bdfyyy.com/bdf/bdfzd/4836.html</t>
+  </si>
+  <si>
+    <t>如果不治疗白癜风会出现什么状况</t>
+  </si>
+  <si>
+    <t>http://tuiguang.cntfbf.com/bdf/bdfzl/3188.html</t>
+  </si>
+  <si>
+    <t>http://tuiguang.cntfbf.com/bdf/bdfby/3189.html</t>
+  </si>
+  <si>
+    <t>贵州遵义有医治白癫疯的医院吗</t>
+  </si>
+  <si>
+    <t>http://www.wffzswj.com/bdfzl/428.html</t>
+  </si>
+  <si>
+    <t>http://m.wffzswj.com/bdfzl/428.html</t>
+  </si>
+  <si>
+    <t>为什么白癜风会出现在脸上</t>
+  </si>
+  <si>
+    <t>http://www.wffzswj.com/bdfcs/429.html</t>
+  </si>
+  <si>
+    <t>http://m.wffzswj.com/bdfcs/429.html</t>
+  </si>
+  <si>
+    <t>贵州白癜风医院治疗白癜风需要多少钱</t>
+  </si>
+  <si>
+    <t>https://www.jvlz.com/bdfjt/bdfzl/4563.html</t>
+  </si>
+  <si>
+    <t>https://m.jvlz.com/bdfjt/bdfzl/4563.html?1587969344</t>
+  </si>
+  <si>
+    <t>如果脸上出现白癜风怎么办</t>
+  </si>
+  <si>
+    <t>https://www.jvlz.com/bdfbw/mb/4564.html</t>
+  </si>
+  <si>
+    <t>https://m.jvlz.com/bdfbw/mb/4564.html?1587969064</t>
+  </si>
+  <si>
+    <t>白癜风患者熬夜会有什么危害</t>
+  </si>
+  <si>
+    <t>https://www.bb454.com/bdf/bdfzl/8163.html</t>
+  </si>
+  <si>
+    <t>https://mip.bb454.com/bdf/bdfzl/8163.html</t>
+  </si>
+  <si>
+    <t>从哪些方面可以诊断白癜风</t>
+  </si>
+  <si>
+    <t>https://www.bb454.com/bdf/bdfzl/8164.html</t>
+  </si>
+  <si>
+    <t>https://mip.bb454.com/bdf/bdfzl/8164.html</t>
+  </si>
+  <si>
+    <t>如何保养头部白癫风</t>
+  </si>
+  <si>
+    <t>http://www.wdd-forge.com/bdfbw/171.html</t>
+  </si>
+  <si>
+    <t>http://m.wdd-forge.com/bdfbw/171.html?1587974059</t>
+  </si>
+  <si>
+    <t>节段性白癜风的典型症状是什么</t>
+  </si>
+  <si>
+    <t>http://www.wdd-forge.com/bdfzz/172.html</t>
+  </si>
+  <si>
+    <t>http://m.wdd-forge.com/bdfzz/172.html?1587974054</t>
+  </si>
+  <si>
+    <t>白癜风患者应该怎么做才能提高治疗效果</t>
+  </si>
+  <si>
+    <t>http://www.guanggaoco.com/bdfcs/138.html</t>
+  </si>
+  <si>
+    <t>http://m.guanggaoco.com/bdfcs/138.html?1587970564</t>
+  </si>
+  <si>
+    <t>治疗白癜疯需要注意什么</t>
+  </si>
+  <si>
+    <t>http://www.guanggaoco.com/bdfcs/139.html</t>
+  </si>
+  <si>
+    <t>http://m.guanggaoco.com/bdfcs/139.html?1587970567</t>
+  </si>
+  <si>
+    <t>如何护理白癜风的治疗</t>
+  </si>
+  <si>
+    <t>https://www.hnjtfy.com/bdfhl/1739.html</t>
+  </si>
+  <si>
+    <t>https://m.hnjtfy.com/bdfhl/1739.html</t>
+  </si>
+  <si>
+    <t>白癜风女性可以化妆吗</t>
+  </si>
+  <si>
+    <t>https://www.hnjtfy.com/bdfhl/1740.html</t>
+  </si>
+  <si>
+    <t>https://m.hnjtfy.com/bdfhl/1740.html</t>
+  </si>
+  <si>
+    <t>如何正确护理胸部出现白癜风</t>
+  </si>
+  <si>
+    <t>http://www.nmdzxx.com/bdfbw/174.html</t>
+  </si>
+  <si>
+    <t>http://m.nmdzxx.com/bdfbw/174.html</t>
+  </si>
+  <si>
+    <t>如何调整白癜风患者的心理</t>
+  </si>
+  <si>
+    <t>http://www.nmdzxx.com/bdfzl/175.html</t>
+  </si>
+  <si>
+    <t>http://m.nmdzxx.com/bdfzl/175.html</t>
+  </si>
+  <si>
+    <t>如何预防白癫风的出现</t>
+  </si>
+  <si>
+    <t>https://www.0851gybdf.com/bdfyf/1024.html</t>
+  </si>
+  <si>
+    <t>https://m.0851gybdf.com/bdfyf/1024.html</t>
+  </si>
+  <si>
+    <t>如何预防生活中白癜风的出现</t>
+  </si>
+  <si>
+    <t>https://www.0851gybdf.com/bdfyf/1025.html</t>
+  </si>
+  <si>
+    <t>https://m.0851gybdf.com/bdfyf/1025.html</t>
+  </si>
+  <si>
+    <t>什么情况会引起皮肤白癜风</t>
+  </si>
+  <si>
+    <t>https://wap.kkk2222.cn/bingyin/128.html</t>
+  </si>
+  <si>
+    <t>白癫风患者应注意什么</t>
+  </si>
+  <si>
+    <t>https://wap.kkk2222.cn/huli/129.html</t>
+  </si>
+  <si>
+    <t>白癜风患者的调理方法是什么</t>
+  </si>
+  <si>
+    <t>https://www.dorunlight.com/bdfys/475.html</t>
+  </si>
+  <si>
+    <t>https://m.dorunlight.com/bdfys/475.html?1588054604</t>
+  </si>
+  <si>
+    <t>白癜风患者如何日常护理</t>
+  </si>
+  <si>
+    <t>https://www.dorunlight.com/bdfys/476.html</t>
+  </si>
+  <si>
+    <t>https://m.dorunlight.com/bdfys/476.html?1588054607</t>
+  </si>
+  <si>
+    <t>https://www.cntfbf.com/bdf/bdfby/3442.html</t>
+  </si>
+  <si>
+    <t>https://m.cntfbf.com/bdfjb/bdfby/388.html</t>
+  </si>
+  <si>
+    <t>白癜风复发的因素和注意事项有哪些</t>
+  </si>
+  <si>
+    <t>https://www.cntfbf.com/bdf/bdfzl/3443.html</t>
+  </si>
+  <si>
+    <t>https://m.cntfbf.com/bdfjb/bdfby/389.html?1588054917</t>
+  </si>
+  <si>
+    <t>贵阳白癜风皮肤病医院好吗</t>
+  </si>
+  <si>
+    <t>https://www.taolch.com/bdfzl/328.html</t>
+  </si>
+  <si>
+    <t>https://m.taolch.com/bdfzl/328.html</t>
+  </si>
+  <si>
+    <t>如何减少白癜风复发的可能性</t>
+  </si>
+  <si>
+    <t>https://www.taolch.com/bdfzl/329.html</t>
+  </si>
+  <si>
+    <t>https://m.taolch.com/bdfzl/329.html</t>
+  </si>
+  <si>
+    <t>贵阳白癜风皮肤病医院怎么样</t>
+  </si>
+  <si>
+    <t>https://www.izwf.com/bdf/bdfzl/4849.html</t>
+  </si>
+  <si>
+    <t>https://m.izwf.com/bdf/bdfzl/4849.html</t>
+  </si>
+  <si>
+    <t>如何科学护理白癜风患者</t>
+  </si>
+  <si>
+    <t>https://www.izwf.com/bdf/bdfcs/4850.html</t>
+  </si>
+  <si>
+    <t>https://m.izwf.com/bdf/bdfcs/4850.html</t>
+  </si>
+  <si>
+    <t>白癜风患者应该如何保养自己</t>
+  </si>
+  <si>
+    <t>https://www.bdfyyy.com/bdf/bdfcs/4837.html</t>
+  </si>
+  <si>
+    <t>https://3g.bdfyyy.com/bdf/bdfcs/4837.html</t>
+  </si>
+  <si>
+    <t>患上白癜风后需要调整下饮食方式</t>
+  </si>
+  <si>
+    <t>https://www.bdfyyy.com/bdf/bdfcs/4838.html</t>
+  </si>
+  <si>
+    <t>https://3g.bdfyyy.com/bdf/bdfcs/4838.html</t>
+  </si>
+  <si>
+    <t>白癜风患者夏天不能吃任何食物</t>
+  </si>
+  <si>
+    <t>http://tuiguang.cntfbf.com/bdf/bdfsl/3190.html</t>
+  </si>
+  <si>
+    <t>白癜风患者吃药要注意什么</t>
+  </si>
+  <si>
+    <t>http://tuiguang.cntfbf.com/bdf/bdfzl/3191.html</t>
+  </si>
+  <si>
+    <t>我们应该怎样正确的预防白癜风</t>
+  </si>
+  <si>
+    <t>http://www.wffzswj.com/bdfyf/430.html</t>
+  </si>
+  <si>
+    <t>http://m.wffzswj.com/bdfyf/430.html</t>
+  </si>
+  <si>
+    <t>如何预防白癫风会很有效</t>
+  </si>
+  <si>
+    <t>http://www.wffzswj.com/bdfyf/431.html</t>
+  </si>
+  <si>
+    <t>http://m.wffzswj.com/bdfyf/431.html</t>
+  </si>
+  <si>
+    <t>http://gzpfb.wffzswj.com/bdfzl/3881.html</t>
+  </si>
+  <si>
+    <t>http://3g.wffzswj.com/bdfzl/3881.html</t>
+  </si>
+  <si>
+    <t>夏季如何预防白癜风的出现呢</t>
+  </si>
+  <si>
+    <t>http://gzpfb.wffzswj.com/bdfyf/3882.html</t>
+  </si>
+  <si>
+    <t>http://3g.wffzswj.com/bdfyf/3882.html</t>
+  </si>
+  <si>
+    <t>http://www.wdd-forge.com/bdfby/173.html</t>
+  </si>
+  <si>
+    <t>http://m.wdd-forge.com/bdfby/173.html?1588062925</t>
+  </si>
+  <si>
+    <t>如何科学地治疗生活中的白癜风</t>
+  </si>
+  <si>
+    <t>http://www.wdd-forge.com/bdfby/174.html</t>
+  </si>
+  <si>
+    <t>http://m.wdd-forge.com/bdfby/174.html?1588062928</t>
+  </si>
+  <si>
+    <t>白癜疯患者如何预防白斑扩散</t>
+  </si>
+  <si>
+    <t>https://wap.kkk2222.cn/yufang/130.html</t>
+  </si>
+  <si>
+    <t>预防白癜疯这很重要吗</t>
+  </si>
+  <si>
+    <t>https://wap.kkk2222.cn/yufang/131.html</t>
+  </si>
+  <si>
+    <t>我们如何合理地预防白癜风的发生</t>
+  </si>
+  <si>
+    <t>https://www.dorunlight.com/bdfwh/477.html</t>
+  </si>
+  <si>
+    <t>https://m.dorunlight.com/bdfwh/477.html?1588123472</t>
+  </si>
+  <si>
+    <t>白癜风对患者的直接伤害是什么</t>
+  </si>
+  <si>
+    <t>https://www.dorunlight.com/bdfwh/478.html</t>
+  </si>
+  <si>
+    <t>https://m.dorunlight.com/bdfwh/478.html?1588123475</t>
+  </si>
+  <si>
+    <t>头部白癫风该怎么治疗</t>
+  </si>
+  <si>
+    <t>https://www.cntfbf.com/bdf/bdfcs/3446.html</t>
+  </si>
+  <si>
+    <t>https://m.cntfbf.com/bdfjb/bdfzl/390.html</t>
+  </si>
+  <si>
+    <t>白癜风有哪些危害</t>
+  </si>
+  <si>
+    <t>https://www.cntfbf.com/bdf/bdfcs/3447.html</t>
+  </si>
+  <si>
+    <t>https://m.cntfbf.com/bdfjb/bdfzl/391.html</t>
+  </si>
+  <si>
+    <t>https://www.taolch.com/bdfzl/330.html</t>
+  </si>
+  <si>
+    <t>https://m.taolch.com/bdfzl/330.html</t>
+  </si>
+  <si>
+    <t>白癜风患者服用维生素C有什么后果</t>
+  </si>
+  <si>
+    <t>https://www.taolch.com/bdfzl/331.html</t>
+  </si>
+  <si>
+    <t>https://m.taolch.com/bdfzl/331.html</t>
+  </si>
+  <si>
+    <t>手臂上有白点怎么办</t>
+  </si>
+  <si>
+    <t>https://www.izwf.com/bdf/bdfcs/4851.html</t>
+  </si>
+  <si>
+    <t>https://m.izwf.com/bdf/bdfcs/4851.html</t>
+  </si>
+  <si>
+    <t>白癜风会对患者的心理造成什么样的伤害</t>
+  </si>
+  <si>
+    <t>https://www.izwf.com/bdf/bdfcs/4852.html</t>
+  </si>
+  <si>
+    <t>https://m.izwf.com/bdf/bdfcs/4852.html</t>
+  </si>
+  <si>
+    <t>我们如何才可以尽早的发现患白癜风</t>
+  </si>
+  <si>
+    <t>https://www.bdfyyy.com/bdf/bdfzz/4839.html</t>
+  </si>
+  <si>
+    <t>https://3g.bdfyyy.com/bdf/bdfzz/4839.html</t>
+  </si>
+  <si>
+    <t>早期如何护理白癫风</t>
+  </si>
+  <si>
+    <t>https://www.bdfyyy.com/bdf/bdfyf/4840.html</t>
+  </si>
+  <si>
+    <t>https://3g.bdfyyy.com/bdf/bdfyf/4840.html</t>
+  </si>
+  <si>
+    <t>白癜风的出现对于患者的伤害有多么大</t>
+  </si>
+  <si>
+    <t>http://tuiguang.cntfbf.com/bdf/bdfcs/3192.html</t>
+  </si>
+  <si>
+    <t>通过改变饮食方式真的可以预防白癜风吗</t>
+  </si>
+  <si>
+    <t>http://tuiguang.cntfbf.com/bdf/bdfsl/3193.html</t>
+  </si>
+  <si>
+    <t>白癜风对患者有什么危害</t>
+  </si>
+  <si>
+    <t>http://www.wffzswj.com/bdfcs/432.html</t>
+  </si>
+  <si>
+    <t>http://m.wffzswj.com/bdfcs/432.html</t>
+  </si>
+  <si>
+    <t>http://www.wffzswj.com/bdfcs/433.html</t>
+  </si>
+  <si>
+    <t>http://m.wffzswj.com/bdfcs/433.html</t>
+  </si>
+  <si>
+    <t>白癜风患者该如何治疗</t>
+  </si>
+  <si>
+    <t>http://gzpfb.wffzswj.com/bdfzl/3883.html</t>
+  </si>
+  <si>
+    <t>http://3g.wffzswj.com/bdfzl/3883.html</t>
+  </si>
+  <si>
+    <t>如何科学地治疗生活中的白癫风</t>
+  </si>
+  <si>
+    <t>http://gzpfb.wffzswj.com/bdfzl/3884.html</t>
+  </si>
+  <si>
+    <t>http://3g.wffzswj.com/bdfzl/3884.html</t>
+  </si>
+  <si>
+    <t>为什么白癜风这么难治</t>
+  </si>
+  <si>
+    <t>https://www.0851gzpfbyy.com/bdfzl/853.html</t>
+  </si>
+  <si>
+    <t>https://m.0851gzpfbyy.com/bdfzl/853.html</t>
+  </si>
+  <si>
+    <t>如何治疗儿童皮肤白癜风</t>
+  </si>
+  <si>
+    <t>https://www.0851gzpfbyy.com/bdfzl/854.html</t>
+  </si>
+  <si>
+    <t>https://m.0851gzpfbyy.com/bdfzl/854.html</t>
+  </si>
+  <si>
+    <t>白癜风治疗期间一定要注意了</t>
+  </si>
+  <si>
+    <t>http://www.warslave.com.cn/bdfzl/1556.html</t>
+  </si>
+  <si>
+    <t>http://m.warslave.com.cn/bdfzl/1557.html</t>
+  </si>
+  <si>
+    <t>白癜风治好后应注意什么</t>
+  </si>
+  <si>
+    <t>http://www.warslave.com.cn/bdfzl/1557.html</t>
+  </si>
+  <si>
+    <t>http://m.warslave.com.cn/bdfzl/1556.html</t>
   </si>
 </sst>
 </file>
@@ -8931,10 +9525,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -9020,24 +9614,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9051,14 +9653,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -9068,46 +9662,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9127,24 +9681,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9158,7 +9720,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9191,7 +9785,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9203,13 +9863,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9227,25 +9917,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9257,85 +9947,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9347,25 +9959,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9394,6 +9988,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -9409,26 +10012,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9450,20 +10038,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9485,9 +10077,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9499,10 +10093,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -9511,133 +10105,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
@@ -9785,7 +10379,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{a4a68ddd-2c58-4b26-aa4f-ac790b01cbfb}" diskRevisions="1" revisionId="1698" version="25">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{f2bb0819-c74f-4314-9636-03d353dbf035}" diskRevisions="1" revisionId="1997" version="29">
   <header guid="{b051279f-1af8-48fb-a4a1-27283c1d6e07}" dateTime="2020-04-08T10:53:55" maxSheetId="2" userName="Administrator" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
@@ -9911,6 +10505,26 @@
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
+  <header guid="{6ad04b40-6ffd-4342-acb6-bed232049f52}" dateTime="2020-04-27T14:48:20" maxSheetId="2" userName="Administrator" r:id="rId26" minRId="1699" maxRId="1760">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{5d5b3382-6841-4374-8200-f18e3770fccb}" dateTime="2020-04-27T15:14:42" maxSheetId="2" userName="Administrator" r:id="rId27" minRId="1761" maxRId="1836">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{cb006221-4474-4ebd-82e6-eb6a205f1ab6}" dateTime="2020-04-28T15:30:54" maxSheetId="2" userName="Administrator" r:id="rId28" minRId="1837" maxRId="1912">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{f2bb0819-c74f-4314-9636-03d353dbf035}" dateTime="2020-04-29T16:50:43" maxSheetId="2" userName="Administrator" r:id="rId29" minRId="1913" maxRId="1997">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -34701,6 +35315,2946 @@
         <t>已收录</t>
       </is>
     </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog26.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1699" sId="1">
+    <nc r="B1044" t="inlineStr">
+      <is>
+        <t>大家注意，白癜风的病因有这几个_病因_贵州白癜风皮肤病医院</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1700" sId="1">
+    <nc r="B1045" t="inlineStr">
+      <is>
+        <t>得了白癜风平时要怎么保养_护理_贵州白癜风皮肤病医院</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1701" sId="1">
+    <nc r="B1046" t="inlineStr">
+      <is>
+        <t>贵州白癜风医院治疗白癜风怎么样-贵州白癜风医院</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1702" sId="1">
+    <nc r="C1046" t="inlineStr">
+      <is>
+        <t>https://www.dorunlight.com/bdfys/473.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1703" sId="1">
+    <nc r="B1047" t="inlineStr">
+      <is>
+        <t>白癜风有哪些症状?大家一定要记住-贵州白癜风医院</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1704" sId="1">
+    <nc r="C1047" t="inlineStr">
+      <is>
+        <t>https://www.dorunlight.com/bdfwh/474.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1705" sId="1">
+    <nc r="H1044" t="inlineStr">
+      <is>
+        <t>https://wap.kkk2222.cn/bingyin/126.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1706" sId="1">
+    <nc r="H1045" t="inlineStr">
+      <is>
+        <t>https://wap.kkk2222.cn/huli/127.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1707" sId="1">
+    <nc r="H1046" t="inlineStr">
+      <is>
+        <t>https://m.dorunlight.com/bdfys/473.html?1587964959</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1708" sId="1">
+    <nc r="H1047" t="inlineStr">
+      <is>
+        <t>https://m.dorunlight.com/bdfwh/474.html?1587964961</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1709" sId="1">
+    <nc r="B1048" t="inlineStr">
+      <is>
+        <t>治疗白癜风在贵州哪里治疗-贵州白癜风皮肤病医院</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1710" sId="1">
+    <nc r="C1048" t="inlineStr">
+      <is>
+        <t>https://www.cntfbf.com/bdf/bdfzl/3440.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1711" sId="1">
+    <nc r="B1049" t="inlineStr">
+      <is>
+        <t>如何护理白癫风患者-贵州白癜风皮肤病医院</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1712" sId="1">
+    <nc r="C1049" t="inlineStr">
+      <is>
+        <t>https://www.cntfbf.com/bdf/bdfzl/3441.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1713" sId="1">
+    <nc r="H1048" t="inlineStr">
+      <is>
+        <t>https://m.cntfbf.com/bdfjb/bdfzl/386.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1714" sId="1">
+    <nc r="H1049" t="inlineStr">
+      <is>
+        <t>https://m.cntfbf.com/bdfjb/bdfzl/387.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1715" sId="1">
+    <nc r="B1050" t="inlineStr">
+      <is>
+        <t>如何避免白癜风到处扩散_贵州白癜风皮肤病医院</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1716" sId="1">
+    <nc r="C1050" t="inlineStr">
+      <is>
+        <t>https://www.taolch.com/bdfzl/326.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1717" sId="1">
+    <nc r="B1051" t="inlineStr">
+      <is>
+        <t>白癜风治疗需要多少钱_贵州白癜风皮肤病医院</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1718" sId="1">
+    <nc r="C1051" t="inlineStr">
+      <is>
+        <t>https://www.taolch.com/bdfzl/327.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1719" sId="1">
+    <nc r="H1050" t="inlineStr">
+      <is>
+        <t>https://m.taolch.com/bdfzl/326.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1720" sId="1">
+    <nc r="H1051" t="inlineStr">
+      <is>
+        <t>https://m.taolch.com/bdfzl/327.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1721" sId="1">
+    <nc r="B1052" t="inlineStr">
+      <is>
+        <t>白癜风如果不治疗会造成什么危害-贵阳白癜风皮肤病医院</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1722" sId="1">
+    <nc r="C1052" t="inlineStr">
+      <is>
+        <t>https://www.izwf.com/bdf/bdfcs/4846.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1723" sId="1">
+    <nc r="B1053" t="inlineStr">
+      <is>
+        <t>我们应该如何预防白癜风-贵阳白癜风皮肤病医院</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1724" sId="1">
+    <nc r="C1053" t="inlineStr">
+      <is>
+        <t>https://www.izwf.com/bdf/bdfyf/4847.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1725" sId="1">
+    <nc r="H1052" t="inlineStr">
+      <is>
+        <t>https://m.izwf.com/bdf/bdfcs/4846.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1726" sId="1">
+    <nc r="H1053" t="inlineStr">
+      <is>
+        <t>https://m.izwf.com/bdf/bdfyf/4847.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1727" sId="1">
+    <nc r="B1054" t="inlineStr">
+      <is>
+        <t>运动后白癜风患者需要注意什么-贵州白癜风皮肤病医院</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1728" sId="1">
+    <nc r="C1054" t="inlineStr">
+      <is>
+        <t>https://www.bdfyyy.com/bdf/bdfcs/4835.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1729" sId="1">
+    <nc r="B1055" t="inlineStr">
+      <is>
+        <t>诊断白癜风的方法有哪些-贵州白癜风皮肤病医院</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1730" sId="1">
+    <nc r="C1055" t="inlineStr">
+      <is>
+        <t>https://www.bdfyyy.com/bdf/bdfzd/4836.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1731" sId="1">
+    <nc r="H1054" t="inlineStr">
+      <is>
+        <t>https://3g.bdfyyy.com/bdf/bdfcs/4835.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1732" sId="1">
+    <nc r="H1055" t="inlineStr">
+      <is>
+        <t>https://3g.bdfyyy.com/bdf/bdfzd/4836.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1733" sId="1">
+    <nc r="B1056" t="inlineStr">
+      <is>
+        <t>如果不治疗白癜风会出现什么状况-贵州白癜风皮肤病医院</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1734" sId="1">
+    <nc r="C1056" t="inlineStr">
+      <is>
+        <t>http://tuiguang.cntfbf.com/bdf/bdfzl/3188.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1735" sId="1">
+    <nc r="B1057" t="inlineStr">
+      <is>
+        <t>大家注意，白癜风的病因有这几个-贵州白癜风皮肤病医院</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1736" sId="1">
+    <nc r="C1057" t="inlineStr">
+      <is>
+        <t>http://tuiguang.cntfbf.com/bdf/bdfby/3189.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1737" sId="1">
+    <nc r="B1058" t="inlineStr">
+      <is>
+        <t>贵州遵义有医治白癫疯的医院吗_贵州白癜风医院</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1738" sId="1">
+    <nc r="C1058" t="inlineStr">
+      <is>
+        <t>http://www.wffzswj.com/bdfzl/428.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1739" sId="1">
+    <nc r="B1059" t="inlineStr">
+      <is>
+        <t>为什么白癜风会出现在脸上_贵州白癜风医院</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1740" sId="1">
+    <nc r="C1059" t="inlineStr">
+      <is>
+        <t>http://www.wffzswj.com/bdfcs/429.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1741" sId="1">
+    <nc r="H1058" t="inlineStr">
+      <is>
+        <t>http://m.wffzswj.com/bdfzl/428.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1742" sId="1">
+    <nc r="H1059" t="inlineStr">
+      <is>
+        <t>http://m.wffzswj.com/bdfcs/429.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1743" sId="1">
+    <nc r="B1060" t="inlineStr">
+      <is>
+        <t>贵州白癜风医院治疗白癜风需要多少钱_贵州白癜风皮肤病医院</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1744" sId="1">
+    <nc r="C1060" t="inlineStr">
+      <is>
+        <t>https://www.jvlz.com/bdfjt/bdfzl/4563.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1745" sId="1">
+    <nc r="B1061" t="inlineStr">
+      <is>
+        <t>如果脸上出现白癜风怎么办_贵州白癜风皮肤病医院</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1746" sId="1">
+    <nc r="C1061" t="inlineStr">
+      <is>
+        <t>https://www.jvlz.com/bdfbw/mb/4564.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1747" sId="1">
+    <nc r="H1060" t="inlineStr">
+      <is>
+        <t>https://m.jvlz.com/bdfjt/bdfzl/4563.html?1587969344</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1748" sId="1">
+    <nc r="H1061" t="inlineStr">
+      <is>
+        <t>https://m.jvlz.com/bdfbw/mb/4564.html?1587969064</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1749" sId="1">
+    <nc r="B1062" t="inlineStr">
+      <is>
+        <t>白癜风患者熬夜会有什么危害_贵州白癜风皮肤病医院</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1750" sId="1">
+    <nc r="C1062" t="inlineStr">
+      <is>
+        <t>https://www.bb454.com/bdf/bdfzl/8163.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1751" sId="1">
+    <nc r="B1063" t="inlineStr">
+      <is>
+        <t>从哪些方面可以诊断白癜风_贵州白癜风皮肤病医院</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1752" sId="1">
+    <nc r="C1063" t="inlineStr">
+      <is>
+        <t>https://www.bb454.com/bdf/bdfzl/8164.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1753" sId="1">
+    <nc r="H1062" t="inlineStr">
+      <is>
+        <t>https://mip.bb454.com/bdf/bdfzl/8163.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1754" sId="1">
+    <nc r="H1063" t="inlineStr">
+      <is>
+        <t>https://mip.bb454.com/bdf/bdfzl/8164.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1755" sId="1">
+    <nc r="B1064" t="inlineStr">
+      <is>
+        <t>如何保养头部白癫风_贵州白癜风医院</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1756" sId="1">
+    <nc r="C1064" t="inlineStr">
+      <is>
+        <t>http://www.wdd-forge.com/bdfbw/171.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1757" sId="1">
+    <nc r="B1065" t="inlineStr">
+      <is>
+        <t>节段性白癜风的典型症状是什么_贵州白癜风医院</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1758" sId="1">
+    <nc r="C1065" t="inlineStr">
+      <is>
+        <t>http://www.wdd-forge.com/bdfzz/172.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1759" sId="1">
+    <nc r="H1064" t="inlineStr">
+      <is>
+        <t>http://m.wdd-forge.com/bdfbw/171.html?1587974059</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1760" sId="1">
+    <nc r="H1065" t="inlineStr">
+      <is>
+        <t>http://m.wdd-forge.com/bdfzz/172.html?1587974054</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog27.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1761" sId="1">
+    <nc r="C1066" t="inlineStr">
+      <is>
+        <t>http://www.guanggaoco.com/bdfcs/138.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1762" sId="1">
+    <nc r="C1067" t="inlineStr">
+      <is>
+        <t>http://www.guanggaoco.com/bdfcs/139.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1763" sId="1">
+    <nc r="H1066" t="inlineStr">
+      <is>
+        <t>http://m.guanggaoco.com/bdfcs/138.html?1587970564</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1764" sId="1">
+    <nc r="H1067" t="inlineStr">
+      <is>
+        <t>http://m.guanggaoco.com/bdfcs/139.html?1587970567</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1765" sId="1">
+    <nc r="C1068" t="inlineStr">
+      <is>
+        <t>https://www.hnjtfy.com/bdfhl/1739.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1766" sId="1">
+    <nc r="C1069" t="inlineStr">
+      <is>
+        <t>https://www.hnjtfy.com/bdfhl/1740.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1767" sId="1">
+    <nc r="H1068" t="inlineStr">
+      <is>
+        <t>https://m.hnjtfy.com/bdfhl/1739.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1768" sId="1">
+    <nc r="H1069" t="inlineStr">
+      <is>
+        <t>https://m.hnjtfy.com/bdfhl/1740.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1769" sId="1">
+    <nc r="C1070" t="inlineStr">
+      <is>
+        <t>http://www.nmdzxx.com/bdfbw/174.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1770" sId="1">
+    <nc r="C1071" t="inlineStr">
+      <is>
+        <t>http://www.nmdzxx.com/bdfzl/175.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1771" sId="1">
+    <nc r="H1070" t="inlineStr">
+      <is>
+        <t>http://m.nmdzxx.com/bdfbw/174.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1772" sId="1">
+    <nc r="H1071" t="inlineStr">
+      <is>
+        <t>http://m.nmdzxx.com/bdfzl/175.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1773" sId="1">
+    <nc r="C1072" t="inlineStr">
+      <is>
+        <t>https://www.0851gybdf.com/bdfyf/1024.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1774" sId="1">
+    <nc r="C1073" t="inlineStr">
+      <is>
+        <t>https://www.0851gybdf.com/bdfyf/1025.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1775" sId="1">
+    <nc r="H1072" t="inlineStr">
+      <is>
+        <t>https://m.0851gybdf.com/bdfyf/1024.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1776" sId="1">
+    <nc r="H1073" t="inlineStr">
+      <is>
+        <t>https://m.0851gybdf.com/bdfyf/1025.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1777" sId="1">
+    <oc r="B1044" t="inlineStr">
+      <is>
+        <t>大家注意，白癜风的病因有这几个_病因_贵州白癜风皮肤病医院</t>
+      </is>
+    </oc>
+    <nc r="B1044" t="inlineStr">
+      <is>
+        <t>大家注意，白癜风的病因有这几个</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1778" sId="1">
+    <oc r="B1045" t="inlineStr">
+      <is>
+        <t>得了白癜风平时要怎么保养_护理_贵州白癜风皮肤病医院</t>
+      </is>
+    </oc>
+    <nc r="B1045" t="inlineStr">
+      <is>
+        <t>得了白癜风平时要怎么保养</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1779" sId="1">
+    <oc r="B1046" t="inlineStr">
+      <is>
+        <t>贵州白癜风医院治疗白癜风怎么样-贵州白癜风医院</t>
+      </is>
+    </oc>
+    <nc r="B1046" t="inlineStr">
+      <is>
+        <t>贵州白癜风医院治疗白癜风怎么样</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1780" sId="1">
+    <oc r="B1047" t="inlineStr">
+      <is>
+        <t>白癜风有哪些症状?大家一定要记住-贵州白癜风医院</t>
+      </is>
+    </oc>
+    <nc r="B1047" t="inlineStr">
+      <is>
+        <t>白癜风有哪些症状?大家一定要记住</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1781" sId="1">
+    <oc r="B1048" t="inlineStr">
+      <is>
+        <t>治疗白癜风在贵州哪里治疗-贵州白癜风皮肤病医院</t>
+      </is>
+    </oc>
+    <nc r="B1048" t="inlineStr">
+      <is>
+        <t>治疗白癜风在贵州哪里治疗</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1782" sId="1">
+    <oc r="B1049" t="inlineStr">
+      <is>
+        <t>如何护理白癫风患者-贵州白癜风皮肤病医院</t>
+      </is>
+    </oc>
+    <nc r="B1049" t="inlineStr">
+      <is>
+        <t>如何护理白癫风患者</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1783" sId="1">
+    <oc r="B1050" t="inlineStr">
+      <is>
+        <t>如何避免白癜风到处扩散_贵州白癜风皮肤病医院</t>
+      </is>
+    </oc>
+    <nc r="B1050" t="inlineStr">
+      <is>
+        <t>如何避免白癜风到处扩散</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1784" sId="1">
+    <oc r="B1051" t="inlineStr">
+      <is>
+        <t>白癜风治疗需要多少钱_贵州白癜风皮肤病医院</t>
+      </is>
+    </oc>
+    <nc r="B1051" t="inlineStr">
+      <is>
+        <t>白癜风治疗需要多少钱</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1785" sId="1">
+    <oc r="B1052" t="inlineStr">
+      <is>
+        <t>白癜风如果不治疗会造成什么危害-贵阳白癜风皮肤病医院</t>
+      </is>
+    </oc>
+    <nc r="B1052" t="inlineStr">
+      <is>
+        <t>白癜风如果不治疗会造成什么危害</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1786" sId="1">
+    <oc r="B1053" t="inlineStr">
+      <is>
+        <t>我们应该如何预防白癜风-贵阳白癜风皮肤病医院</t>
+      </is>
+    </oc>
+    <nc r="B1053" t="inlineStr">
+      <is>
+        <t>我们应该如何预防白癜风</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1787" sId="1">
+    <oc r="B1054" t="inlineStr">
+      <is>
+        <t>运动后白癜风患者需要注意什么-贵州白癜风皮肤病医院</t>
+      </is>
+    </oc>
+    <nc r="B1054" t="inlineStr">
+      <is>
+        <t>运动后白癜风患者需要注意什么</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1788" sId="1">
+    <oc r="B1055" t="inlineStr">
+      <is>
+        <t>诊断白癜风的方法有哪些-贵州白癜风皮肤病医院</t>
+      </is>
+    </oc>
+    <nc r="B1055" t="inlineStr">
+      <is>
+        <t>诊断白癜风的方法有哪些</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1789" sId="1">
+    <oc r="B1056" t="inlineStr">
+      <is>
+        <t>如果不治疗白癜风会出现什么状况-贵州白癜风皮肤病医院</t>
+      </is>
+    </oc>
+    <nc r="B1056" t="inlineStr">
+      <is>
+        <t>如果不治疗白癜风会出现什么状况</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1790" sId="1">
+    <oc r="B1057" t="inlineStr">
+      <is>
+        <t>大家注意，白癜风的病因有这几个-贵州白癜风皮肤病医院</t>
+      </is>
+    </oc>
+    <nc r="B1057" t="inlineStr">
+      <is>
+        <t>大家注意，白癜风的病因有这几个</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1791" sId="1">
+    <oc r="B1058" t="inlineStr">
+      <is>
+        <t>贵州遵义有医治白癫疯的医院吗_贵州白癜风医院</t>
+      </is>
+    </oc>
+    <nc r="B1058" t="inlineStr">
+      <is>
+        <t>贵州遵义有医治白癫疯的医院吗</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1792" sId="1">
+    <oc r="B1059" t="inlineStr">
+      <is>
+        <t>为什么白癜风会出现在脸上_贵州白癜风医院</t>
+      </is>
+    </oc>
+    <nc r="B1059" t="inlineStr">
+      <is>
+        <t>为什么白癜风会出现在脸上</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1793" sId="1">
+    <oc r="B1060" t="inlineStr">
+      <is>
+        <t>贵州白癜风医院治疗白癜风需要多少钱_贵州白癜风皮肤病医院</t>
+      </is>
+    </oc>
+    <nc r="B1060" t="inlineStr">
+      <is>
+        <t>贵州白癜风医院治疗白癜风需要多少钱</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1794" sId="1">
+    <oc r="B1061" t="inlineStr">
+      <is>
+        <t>如果脸上出现白癜风怎么办_贵州白癜风皮肤病医院</t>
+      </is>
+    </oc>
+    <nc r="B1061" t="inlineStr">
+      <is>
+        <t>如果脸上出现白癜风怎么办</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1795" sId="1">
+    <oc r="B1062" t="inlineStr">
+      <is>
+        <t>白癜风患者熬夜会有什么危害_贵州白癜风皮肤病医院</t>
+      </is>
+    </oc>
+    <nc r="B1062" t="inlineStr">
+      <is>
+        <t>白癜风患者熬夜会有什么危害</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1796" sId="1">
+    <oc r="B1063" t="inlineStr">
+      <is>
+        <t>从哪些方面可以诊断白癜风_贵州白癜风皮肤病医院</t>
+      </is>
+    </oc>
+    <nc r="B1063" t="inlineStr">
+      <is>
+        <t>从哪些方面可以诊断白癜风</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1797" sId="1">
+    <oc r="B1064" t="inlineStr">
+      <is>
+        <t>如何保养头部白癫风_贵州白癜风医院</t>
+      </is>
+    </oc>
+    <nc r="B1064" t="inlineStr">
+      <is>
+        <t>如何保养头部白癫风</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1798" sId="1">
+    <oc r="B1065" t="inlineStr">
+      <is>
+        <t>节段性白癜风的典型症状是什么_贵州白癜风医院</t>
+      </is>
+    </oc>
+    <nc r="B1065" t="inlineStr">
+      <is>
+        <t>节段性白癜风的典型症状是什么</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1799" sId="1">
+    <nc r="B1066" t="inlineStr">
+      <is>
+        <t>白癜风患者应该怎么做才能提高治疗效果</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1800" sId="1">
+    <nc r="B1067" t="inlineStr">
+      <is>
+        <t>治疗白癜疯需要注意什么</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1801" sId="1">
+    <nc r="B1068" t="inlineStr">
+      <is>
+        <t>如何护理白癜风的治疗</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1802" sId="1">
+    <nc r="B1069" t="inlineStr">
+      <is>
+        <t>白癜风女性可以化妆吗</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1803" sId="1">
+    <nc r="B1070" t="inlineStr">
+      <is>
+        <t>如何正确护理胸部出现白癜风</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1804" sId="1">
+    <nc r="B1071" t="inlineStr">
+      <is>
+        <t>如何调整白癜风患者的心理</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1805" sId="1">
+    <nc r="B1072" t="inlineStr">
+      <is>
+        <t>如何预防白癫风的出现</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1806" sId="1">
+    <nc r="B1073" t="inlineStr">
+      <is>
+        <t>如何预防生活中白癜风的出现</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="A1044" start="0" length="2147483647">
+    <dxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="1807" sId="1" numFmtId="45">
+    <nc r="A1044" t="n">
+      <v>43948</v>
+    </nc>
+  </rcc>
+  <rcc rId="1808" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1045" t="n">
+      <v>43948</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="1809" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1046" t="n">
+      <v>43948</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="1810" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1047" t="n">
+      <v>43948</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="1811" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1048" t="n">
+      <v>43948</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="1812" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1049" t="n">
+      <v>43948</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="1813" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1050" t="n">
+      <v>43948</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="1814" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1051" t="n">
+      <v>43948</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="1815" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1052" t="n">
+      <v>43948</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="1816" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1053" t="n">
+      <v>43948</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="1817" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1054" t="n">
+      <v>43948</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="1818" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1055" t="n">
+      <v>43948</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="1819" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1056" t="n">
+      <v>43948</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="1820" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1057" t="n">
+      <v>43948</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="1821" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1058" t="n">
+      <v>43948</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="1822" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1059" t="n">
+      <v>43948</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="1823" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1060" t="n">
+      <v>43948</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="1824" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1061" t="n">
+      <v>43948</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="1825" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1062" t="n">
+      <v>43948</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="1826" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1063" t="n">
+      <v>43948</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="1827" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1064" t="n">
+      <v>43948</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="1828" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1065" t="n">
+      <v>43948</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="1829" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1066" t="n">
+      <v>43948</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="1830" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1067" t="n">
+      <v>43948</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="1831" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1068" t="n">
+      <v>43948</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="1832" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1069" t="n">
+      <v>43948</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="1833" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1070" t="n">
+      <v>43948</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="1834" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1071" t="n">
+      <v>43948</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="1835" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1072" t="n">
+      <v>43948</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="1836" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1073" t="n">
+      <v>43948</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog28.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1837" sId="1">
+    <nc r="C1076" t="inlineStr">
+      <is>
+        <t>https://www.dorunlight.com/bdfys/475.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1838" sId="1">
+    <nc r="C1077" t="inlineStr">
+      <is>
+        <t>https://www.dorunlight.com/bdfys/476.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1839" sId="1">
+    <nc r="H1076" t="inlineStr">
+      <is>
+        <t>https://m.dorunlight.com/bdfys/475.html?1588054604</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1840" sId="1">
+    <nc r="H1077" t="inlineStr">
+      <is>
+        <t>https://m.dorunlight.com/bdfys/476.html?1588054607</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1841" sId="1">
+    <nc r="C1078" t="inlineStr">
+      <is>
+        <t>https://www.cntfbf.com/bdf/bdfby/3442.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1842" sId="1">
+    <nc r="C1079" t="inlineStr">
+      <is>
+        <t>https://www.cntfbf.com/bdf/bdfzl/3443.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1843" sId="1">
+    <nc r="H1078" t="inlineStr">
+      <is>
+        <t>https://m.cntfbf.com/bdfjb/bdfby/388.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1844" sId="1">
+    <nc r="H1079" t="inlineStr">
+      <is>
+        <t>https://m.cntfbf.com/bdfjb/bdfby/389.html?1588054917</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1845" sId="1">
+    <nc r="C1080" t="inlineStr">
+      <is>
+        <t>https://www.taolch.com/bdfzl/328.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1846" sId="1">
+    <nc r="C1081" t="inlineStr">
+      <is>
+        <t>https://www.taolch.com/bdfzl/329.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1847" sId="1">
+    <nc r="H1080" t="inlineStr">
+      <is>
+        <t>https://m.taolch.com/bdfzl/328.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1848" sId="1">
+    <nc r="H1081" t="inlineStr">
+      <is>
+        <t>https://m.taolch.com/bdfzl/329.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1849" sId="1">
+    <nc r="C1082" t="inlineStr">
+      <is>
+        <t>https://www.izwf.com/bdf/bdfzl/4849.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1850" sId="1">
+    <nc r="C1083" t="inlineStr">
+      <is>
+        <t>https://www.izwf.com/bdf/bdfcs/4850.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1851" sId="1">
+    <nc r="H1082" t="inlineStr">
+      <is>
+        <t>https://m.izwf.com/bdf/bdfzl/4849.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1852" sId="1">
+    <nc r="H1083" t="inlineStr">
+      <is>
+        <t>https://m.izwf.com/bdf/bdfcs/4850.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1853" sId="1">
+    <nc r="C1084" t="inlineStr">
+      <is>
+        <t>https://www.bdfyyy.com/bdf/bdfcs/4837.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1854" sId="1">
+    <nc r="C1085" t="inlineStr">
+      <is>
+        <t>https://www.bdfyyy.com/bdf/bdfcs/4838.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1855" sId="1">
+    <nc r="H1084" t="inlineStr">
+      <is>
+        <t>https://3g.bdfyyy.com/bdf/bdfcs/4837.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1856" sId="1">
+    <nc r="H1085" t="inlineStr">
+      <is>
+        <t>https://3g.bdfyyy.com/bdf/bdfcs/4838.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1857" sId="1">
+    <nc r="C1086" t="inlineStr">
+      <is>
+        <t>http://tuiguang.cntfbf.com/bdf/bdfsl/3190.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1858" sId="1">
+    <nc r="C1087" t="inlineStr">
+      <is>
+        <t>http://tuiguang.cntfbf.com/bdf/bdfzl/3191.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1859" sId="1">
+    <nc r="C1088" t="inlineStr">
+      <is>
+        <t>http://www.wffzswj.com/bdfyf/430.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1860" sId="1">
+    <nc r="C1089" t="inlineStr">
+      <is>
+        <t>http://www.wffzswj.com/bdfyf/431.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1861" sId="1">
+    <nc r="H1088" t="inlineStr">
+      <is>
+        <t>http://m.wffzswj.com/bdfyf/430.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1862" sId="1">
+    <nc r="H1089" t="inlineStr">
+      <is>
+        <t>http://m.wffzswj.com/bdfyf/431.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1863" sId="1">
+    <nc r="H1074" t="inlineStr">
+      <is>
+        <t>https://wap.kkk2222.cn/bingyin/128.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1864" sId="1">
+    <nc r="H1075" t="inlineStr">
+      <is>
+        <t>https://wap.kkk2222.cn/huli/129.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1865" sId="1">
+    <nc r="C1090" t="inlineStr">
+      <is>
+        <t>http://gzpfb.wffzswj.com/bdfzl/3881.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1866" sId="1">
+    <nc r="C1091" t="inlineStr">
+      <is>
+        <t>http://gzpfb.wffzswj.com/bdfyf/3882.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1867" sId="1">
+    <nc r="H1090" t="inlineStr">
+      <is>
+        <t>http://3g.wffzswj.com/bdfzl/3881.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1868" sId="1">
+    <nc r="H1091" t="inlineStr">
+      <is>
+        <t>http://3g.wffzswj.com/bdfyf/3882.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1869" sId="1">
+    <nc r="C1092" t="inlineStr">
+      <is>
+        <t>http://www.wdd-forge.com/bdfby/173.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1870" sId="1">
+    <nc r="C1093" t="inlineStr">
+      <is>
+        <t>http://www.wdd-forge.com/bdfby/174.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1871" sId="1">
+    <nc r="H1092" t="inlineStr">
+      <is>
+        <t>http://m.wdd-forge.com/bdfby/173.html?1588062925</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1872" sId="1">
+    <nc r="H1093" t="inlineStr">
+      <is>
+        <t>http://m.wdd-forge.com/bdfby/174.html?1588062928</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1873" sId="1">
+    <nc r="B1074" t="inlineStr">
+      <is>
+        <t>什么情况会引起皮肤白癜风</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1874" sId="1">
+    <nc r="B1075" t="inlineStr">
+      <is>
+        <t>白癫风患者应注意什么</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1875" sId="1">
+    <nc r="B1076" t="inlineStr">
+      <is>
+        <t>白癜风患者的调理方法是什么</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1876" sId="1">
+    <nc r="B1077" t="inlineStr">
+      <is>
+        <t>白癜风患者如何日常护理</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1877" sId="1">
+    <nc r="B1078" t="inlineStr">
+      <is>
+        <t>哪些因素会影响白癜风的治疗效果</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1878" sId="1">
+    <nc r="B1079" t="inlineStr">
+      <is>
+        <t>白癜风复发的因素和注意事项有哪些</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1879" sId="1">
+    <nc r="B1080" t="inlineStr">
+      <is>
+        <t>贵阳白癜风皮肤病医院好吗</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1880" sId="1">
+    <nc r="B1081" t="inlineStr">
+      <is>
+        <t>如何减少白癜风复发的可能性</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1881" sId="1">
+    <nc r="B1082" t="inlineStr">
+      <is>
+        <t>贵阳白癜风皮肤病医院怎么样</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1882" sId="1">
+    <nc r="B1083" t="inlineStr">
+      <is>
+        <t>如何科学护理白癜风患者</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1883" sId="1">
+    <nc r="B1084" t="inlineStr">
+      <is>
+        <t>白癜风患者应该如何保养自己</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1884" sId="1">
+    <nc r="B1085" t="inlineStr">
+      <is>
+        <t>患上白癜风后需要调整下饮食方式</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1885" sId="1">
+    <nc r="B1086" t="inlineStr">
+      <is>
+        <t>白癜风患者夏天不能吃任何食物</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1886" sId="1">
+    <nc r="B1087" t="inlineStr">
+      <is>
+        <t>白癜风患者吃药要注意什么</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1887" sId="1">
+    <nc r="B1088" t="inlineStr">
+      <is>
+        <t>我们应该怎样正确的预防白癜风</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1888" sId="1">
+    <nc r="B1089" t="inlineStr">
+      <is>
+        <t>如何预防白癫风会很有效</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1889" sId="1">
+    <nc r="B1090" t="inlineStr">
+      <is>
+        <t>如何更好地治疗白癜风</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1890" sId="1">
+    <nc r="B1091" t="inlineStr">
+      <is>
+        <t>夏季如何预防白癜风的出现呢</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1891" sId="1">
+    <nc r="B1092" t="inlineStr">
+      <is>
+        <t>是什么原因导致白癜风难以治好</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1892" sId="1">
+    <nc r="B1093" t="inlineStr">
+      <is>
+        <t>如何科学地治疗生活中的白癜风</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1893" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1074" t="n">
+      <v>43949</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="1894" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1075" t="n">
+      <v>43949</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="1895" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1076" t="n">
+      <v>43949</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="1896" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1077" t="n">
+      <v>43949</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="1897" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1078" t="n">
+      <v>43949</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="1898" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1079" t="n">
+      <v>43949</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="1899" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1080" t="n">
+      <v>43949</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="1900" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1081" t="n">
+      <v>43949</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="1901" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1082" t="n">
+      <v>43949</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="1902" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1083" t="n">
+      <v>43949</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="1903" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1084" t="n">
+      <v>43949</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="1904" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1085" t="n">
+      <v>43949</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="1905" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1086" t="n">
+      <v>43949</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="1906" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1087" t="n">
+      <v>43949</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="1907" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1088" t="n">
+      <v>43949</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="1908" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1089" t="n">
+      <v>43949</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="1909" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1090" t="n">
+      <v>43949</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="1910" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1091" t="n">
+      <v>43949</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="1911" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1092" t="n">
+      <v>43949</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="1912" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1093" t="n">
+      <v>43949</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog29.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1913" sId="1">
+    <nc r="H1094" t="inlineStr">
+      <is>
+        <t>https://wap.kkk2222.cn/yufang/130.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1914" sId="1">
+    <nc r="H1095" t="inlineStr">
+      <is>
+        <t>https://wap.kkk2222.cn/yufang/131.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1915" sId="1">
+    <nc r="C1096" t="inlineStr">
+      <is>
+        <t>https://www.dorunlight.com/bdfwh/477.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1916" sId="1">
+    <nc r="C1097" t="inlineStr">
+      <is>
+        <t>https://www.dorunlight.com/bdfwh/478.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1917" sId="1">
+    <nc r="H1096" t="inlineStr">
+      <is>
+        <t>https://m.dorunlight.com/bdfwh/477.html?1588123472</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1918" sId="1">
+    <nc r="H1097" t="inlineStr">
+      <is>
+        <t>https://m.dorunlight.com/bdfwh/478.html?1588123475</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1919" sId="1">
+    <nc r="H1098" t="inlineStr">
+      <is>
+        <t>https://m.cntfbf.com/bdfjb/bdfzl/390.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1920" sId="1">
+    <nc r="H1099" t="inlineStr">
+      <is>
+        <t>https://m.cntfbf.com/bdfjb/bdfzl/391.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1921" sId="1">
+    <nc r="C1098" t="inlineStr">
+      <is>
+        <t>https://www.cntfbf.com/bdf/bdfcs/3446.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1922" sId="1">
+    <nc r="C1099" t="inlineStr">
+      <is>
+        <t>https://www.cntfbf.com/bdf/bdfcs/3447.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1923" sId="1">
+    <nc r="C1100" t="inlineStr">
+      <is>
+        <t>https://www.taolch.com/bdfzl/330.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1924" sId="1">
+    <nc r="C1101" t="inlineStr">
+      <is>
+        <t>https://www.taolch.com/bdfzl/331.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1925" sId="1">
+    <nc r="H1100" t="inlineStr">
+      <is>
+        <t>https://m.taolch.com/bdfzl/330.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1926" sId="1">
+    <nc r="H1101" t="inlineStr">
+      <is>
+        <t>https://m.taolch.com/bdfzl/331.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1927" sId="1">
+    <nc r="C1102" t="inlineStr">
+      <is>
+        <t>https://www.izwf.com/bdf/bdfcs/4851.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1928" sId="1">
+    <nc r="C1103" t="inlineStr">
+      <is>
+        <t>https://www.izwf.com/bdf/bdfcs/4852.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1929" sId="1">
+    <nc r="H1102" t="inlineStr">
+      <is>
+        <t>https://m.izwf.com/bdf/bdfcs/4851.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1930" sId="1">
+    <nc r="H1103" t="inlineStr">
+      <is>
+        <t>https://m.izwf.com/bdf/bdfcs/4852.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1931" sId="1">
+    <nc r="C1104" t="inlineStr">
+      <is>
+        <t>https://www.bdfyyy.com/bdf/bdfzz/4839.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1932" sId="1">
+    <nc r="C1105" t="inlineStr">
+      <is>
+        <t>https://www.bdfyyy.com/bdf/bdfyf/4840.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1933" sId="1">
+    <nc r="H1104" t="inlineStr">
+      <is>
+        <t>https://3g.bdfyyy.com/bdf/bdfzz/4839.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1934" sId="1">
+    <nc r="H1105" t="inlineStr">
+      <is>
+        <t>https://3g.bdfyyy.com/bdf/bdfyf/4840.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1935" sId="1">
+    <nc r="C1106" t="inlineStr">
+      <is>
+        <t>http://tuiguang.cntfbf.com/bdf/bdfcs/3192.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1936" sId="1">
+    <nc r="C1107" t="inlineStr">
+      <is>
+        <t>http://tuiguang.cntfbf.com/bdf/bdfsl/3193.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1937" sId="1">
+    <nc r="C1108" t="inlineStr">
+      <is>
+        <t>http://www.wffzswj.com/bdfcs/432.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1938" sId="1">
+    <nc r="C1109" t="inlineStr">
+      <is>
+        <t>http://www.wffzswj.com/bdfcs/433.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1939" sId="1">
+    <nc r="H1108" t="inlineStr">
+      <is>
+        <t>http://m.wffzswj.com/bdfcs/432.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1940" sId="1">
+    <nc r="H1109" t="inlineStr">
+      <is>
+        <t>http://m.wffzswj.com/bdfcs/433.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1941" sId="1">
+    <nc r="C1110" t="inlineStr">
+      <is>
+        <t>http://gzpfb.wffzswj.com/bdfzl/3883.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1942" sId="1">
+    <nc r="C1111" t="inlineStr">
+      <is>
+        <t>http://gzpfb.wffzswj.com/bdfzl/3884.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1943" sId="1">
+    <nc r="H1110" t="inlineStr">
+      <is>
+        <t>http://3g.wffzswj.com/bdfzl/3883.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1944" sId="1">
+    <nc r="H1111" t="inlineStr">
+      <is>
+        <t>http://3g.wffzswj.com/bdfzl/3884.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1945" sId="1">
+    <nc r="C1112" t="inlineStr">
+      <is>
+        <t>https://www.0851gzpfbyy.com/bdfzl/853.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1946" sId="1">
+    <nc r="C1113" t="inlineStr">
+      <is>
+        <t>https://www.0851gzpfbyy.com/bdfzl/854.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1947" sId="1">
+    <nc r="H1112" t="inlineStr">
+      <is>
+        <t>https://m.0851gzpfbyy.com/bdfzl/853.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1948" sId="1">
+    <nc r="H1113" t="inlineStr">
+      <is>
+        <t>https://m.0851gzpfbyy.com/bdfzl/854.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1949" sId="1">
+    <nc r="C1114" t="inlineStr">
+      <is>
+        <t>http://www.warslave.com.cn/bdfzl/1556.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1950" sId="1">
+    <nc r="C1115" t="inlineStr">
+      <is>
+        <t>http://www.warslave.com.cn/bdfzl/1557.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1951" sId="1">
+    <nc r="H1114" t="inlineStr">
+      <is>
+        <t>http://m.warslave.com.cn/bdfzl/1557.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1952" sId="1">
+    <nc r="H1115" t="inlineStr">
+      <is>
+        <t>http://m.warslave.com.cn/bdfzl/1556.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1953" sId="1">
+    <nc r="B1094" t="inlineStr">
+      <is>
+        <t>白癜疯患者如何预防白斑扩散</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1954" sId="1">
+    <nc r="B1095" t="inlineStr">
+      <is>
+        <t>预防白癜疯这很重要吗</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1955" sId="1">
+    <nc r="B1096" t="inlineStr">
+      <is>
+        <t>我们如何合理地预防白癜风的发生</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1956" sId="1">
+    <nc r="B1097" t="inlineStr">
+      <is>
+        <t>白癜风对患者的直接伤害是什么</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1957" sId="1">
+    <nc r="B1098" t="inlineStr">
+      <is>
+        <t>头部白癫风该怎么治疗</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1958" sId="1">
+    <nc r="B1099" t="inlineStr">
+      <is>
+        <t>白癜风有哪些危害</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1959" sId="1">
+    <nc r="B1100" t="inlineStr">
+      <is>
+        <t>白癜风的发作会是季节性的吗</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1960" sId="1">
+    <nc r="B1101" t="inlineStr">
+      <is>
+        <t>白癜风患者服用维生素C有什么后果</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1961" sId="1">
+    <nc r="B1102" t="inlineStr">
+      <is>
+        <t>手臂上有白点怎么办</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1962" sId="1">
+    <nc r="B1103" t="inlineStr">
+      <is>
+        <t>白癜风会对患者的心理造成什么样的伤害</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1963" sId="1">
+    <nc r="B1104" t="inlineStr">
+      <is>
+        <t>我们如何才可以尽早的发现患白癜风</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1964" sId="1">
+    <nc r="B1105" t="inlineStr">
+      <is>
+        <t>早期如何护理白癫风</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1965" sId="1">
+    <nc r="B1106" t="inlineStr">
+      <is>
+        <t>白癜风的出现对于患者的伤害有多么大</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1966" sId="1">
+    <nc r="B1107" t="inlineStr">
+      <is>
+        <t>通过改变饮食方式真的可以预防白癜风吗</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1967" sId="1">
+    <nc r="B1108" t="inlineStr">
+      <is>
+        <t>白癜风对患者有什么危害</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1968" sId="1">
+    <nc r="B1109" t="inlineStr">
+      <is>
+        <t>白癜风会对患者的心理造成什么伤害</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1969" sId="1">
+    <nc r="B1110" t="inlineStr">
+      <is>
+        <t>白癜风患者该如何治疗</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1970" sId="1">
+    <nc r="B1111" t="inlineStr">
+      <is>
+        <t>如何科学地治疗生活中的白癫风</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1971" sId="1">
+    <nc r="B1112" t="inlineStr">
+      <is>
+        <t>为什么白癜风这么难治</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1972" sId="1">
+    <nc r="B1113" t="inlineStr">
+      <is>
+        <t>如何治疗儿童皮肤白癜风</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1973" sId="1">
+    <nc r="B1114" t="inlineStr">
+      <is>
+        <t>白癜风治疗期间一定要注意了</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1974" sId="1">
+    <nc r="B1115" t="inlineStr">
+      <is>
+        <t>白癜风治好后应注意什么</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1975" sId="1" numFmtId="45">
+    <oc r="A1093" t="n">
+      <v>43949</v>
+    </oc>
+    <nc r="A1093" t="n">
+      <v>43950</v>
+    </nc>
+  </rcc>
+  <rcc rId="1976" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1094" t="n">
+      <v>43950</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="1977" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1095" t="n">
+      <v>43950</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="1978" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1096" t="n">
+      <v>43950</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="1979" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1097" t="n">
+      <v>43950</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="1980" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1098" t="n">
+      <v>43950</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="1981" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1099" t="n">
+      <v>43950</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="1982" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1100" t="n">
+      <v>43950</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="1983" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1101" t="n">
+      <v>43950</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="1984" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1102" t="n">
+      <v>43950</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="1985" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1103" t="n">
+      <v>43950</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="1986" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1104" t="n">
+      <v>43950</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="1987" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1105" t="n">
+      <v>43950</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="1988" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1106" t="n">
+      <v>43950</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="1989" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1107" t="n">
+      <v>43950</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="1990" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1108" t="n">
+      <v>43950</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="1991" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1109" t="n">
+      <v>43950</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="1992" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1110" t="n">
+      <v>43950</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="1993" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1111" t="n">
+      <v>43950</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="1994" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1112" t="n">
+      <v>43950</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="1995" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1113" t="n">
+      <v>43950</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="1996" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1114" t="n">
+      <v>43950</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="1997" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1115" t="n">
+      <v>43950</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
   </rcc>
 </revisions>
 </file>
@@ -38168,8 +41722,9 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="2">
   <userInfo guid="{ed42f0e5-c7a6-41a3-9361-2b68fc3838dc}" name="Administrator" id="-650551059" dateTime="2020-04-21T13:14:24"/>
+  <userInfo guid="{f2bb0819-c74f-4314-9636-03d353dbf035}" name="Administrator" id="-650570944" dateTime="2020-04-29T16:52:04"/>
 </users>
 </file>
 
@@ -38431,12 +41986,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L1043"/>
+  <dimension ref="A1:L1115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A966" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A724" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F619" sqref="F619"/>
+      <selection pane="bottomLeft" activeCell="H1117" sqref="H1117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -38444,10 +41999,10 @@
     <col min="1" max="1" width="16.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="34.625" style="3" customWidth="1"/>
     <col min="3" max="3" width="43.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="67.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="2" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="2" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="67.625" style="2" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="11.75" style="2" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="51" style="2" customWidth="1"/>
     <col min="9" max="9" width="9" style="2" customWidth="1"/>
     <col min="10" max="10" width="11.875" style="2" customWidth="1"/>
@@ -53262,7 +56817,6 @@
       <c r="B1018" s="3" t="s">
         <v>2897</v>
       </c>
-      <c r="C1018" s="2"/>
       <c r="H1018" s="2" t="s">
         <v>2898</v>
       </c>
@@ -53274,7 +56828,6 @@
       <c r="B1019" s="3" t="s">
         <v>2899</v>
       </c>
-      <c r="C1019" s="2"/>
       <c r="H1019" s="2" t="s">
         <v>2900</v>
       </c>
@@ -53607,6 +57160,980 @@
       </c>
       <c r="H1043" s="2" t="s">
         <v>2968</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:8">
+      <c r="A1044" s="6">
+        <v>43948</v>
+      </c>
+      <c r="B1044" s="3" t="s">
+        <v>2969</v>
+      </c>
+      <c r="H1044" s="2" t="s">
+        <v>2970</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:8">
+      <c r="A1045" s="6">
+        <v>43948</v>
+      </c>
+      <c r="B1045" s="3" t="s">
+        <v>2971</v>
+      </c>
+      <c r="H1045" s="2" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:8">
+      <c r="A1046" s="6">
+        <v>43948</v>
+      </c>
+      <c r="B1046" s="3" t="s">
+        <v>2973</v>
+      </c>
+      <c r="C1046" s="2" t="s">
+        <v>2974</v>
+      </c>
+      <c r="H1046" s="2" t="s">
+        <v>2975</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:8">
+      <c r="A1047" s="6">
+        <v>43948</v>
+      </c>
+      <c r="B1047" s="3" t="s">
+        <v>2976</v>
+      </c>
+      <c r="C1047" s="2" t="s">
+        <v>2977</v>
+      </c>
+      <c r="H1047" s="2" t="s">
+        <v>2978</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:8">
+      <c r="A1048" s="6">
+        <v>43948</v>
+      </c>
+      <c r="B1048" s="3" t="s">
+        <v>2979</v>
+      </c>
+      <c r="C1048" s="2" t="s">
+        <v>2980</v>
+      </c>
+      <c r="H1048" s="2" t="s">
+        <v>2981</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:8">
+      <c r="A1049" s="6">
+        <v>43948</v>
+      </c>
+      <c r="B1049" s="3" t="s">
+        <v>2982</v>
+      </c>
+      <c r="C1049" s="2" t="s">
+        <v>2983</v>
+      </c>
+      <c r="H1049" s="2" t="s">
+        <v>2984</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:8">
+      <c r="A1050" s="6">
+        <v>43948</v>
+      </c>
+      <c r="B1050" s="3" t="s">
+        <v>2985</v>
+      </c>
+      <c r="C1050" s="2" t="s">
+        <v>2986</v>
+      </c>
+      <c r="H1050" s="2" t="s">
+        <v>2987</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:8">
+      <c r="A1051" s="6">
+        <v>43948</v>
+      </c>
+      <c r="B1051" s="3" t="s">
+        <v>2988</v>
+      </c>
+      <c r="C1051" s="2" t="s">
+        <v>2989</v>
+      </c>
+      <c r="H1051" s="2" t="s">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:8">
+      <c r="A1052" s="6">
+        <v>43948</v>
+      </c>
+      <c r="B1052" s="3" t="s">
+        <v>2991</v>
+      </c>
+      <c r="C1052" s="2" t="s">
+        <v>2992</v>
+      </c>
+      <c r="H1052" s="2" t="s">
+        <v>2993</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:8">
+      <c r="A1053" s="6">
+        <v>43948</v>
+      </c>
+      <c r="B1053" s="3" t="s">
+        <v>2994</v>
+      </c>
+      <c r="C1053" s="2" t="s">
+        <v>2995</v>
+      </c>
+      <c r="H1053" s="2" t="s">
+        <v>2996</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:8">
+      <c r="A1054" s="6">
+        <v>43948</v>
+      </c>
+      <c r="B1054" s="3" t="s">
+        <v>2997</v>
+      </c>
+      <c r="C1054" s="2" t="s">
+        <v>2998</v>
+      </c>
+      <c r="H1054" s="2" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:8">
+      <c r="A1055" s="6">
+        <v>43948</v>
+      </c>
+      <c r="B1055" s="3" t="s">
+        <v>3000</v>
+      </c>
+      <c r="C1055" s="2" t="s">
+        <v>3001</v>
+      </c>
+      <c r="H1055" s="2" t="s">
+        <v>3002</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:3">
+      <c r="A1056" s="6">
+        <v>43948</v>
+      </c>
+      <c r="B1056" s="3" t="s">
+        <v>3003</v>
+      </c>
+      <c r="C1056" s="2" t="s">
+        <v>3004</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:3">
+      <c r="A1057" s="6">
+        <v>43948</v>
+      </c>
+      <c r="B1057" s="3" t="s">
+        <v>2969</v>
+      </c>
+      <c r="C1057" s="2" t="s">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:8">
+      <c r="A1058" s="6">
+        <v>43948</v>
+      </c>
+      <c r="B1058" s="3" t="s">
+        <v>3006</v>
+      </c>
+      <c r="C1058" s="2" t="s">
+        <v>3007</v>
+      </c>
+      <c r="H1058" s="2" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:8">
+      <c r="A1059" s="6">
+        <v>43948</v>
+      </c>
+      <c r="B1059" s="3" t="s">
+        <v>3009</v>
+      </c>
+      <c r="C1059" s="2" t="s">
+        <v>3010</v>
+      </c>
+      <c r="H1059" s="2" t="s">
+        <v>3011</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:8">
+      <c r="A1060" s="6">
+        <v>43948</v>
+      </c>
+      <c r="B1060" s="3" t="s">
+        <v>3012</v>
+      </c>
+      <c r="C1060" s="2" t="s">
+        <v>3013</v>
+      </c>
+      <c r="H1060" s="2" t="s">
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:8">
+      <c r="A1061" s="6">
+        <v>43948</v>
+      </c>
+      <c r="B1061" s="3" t="s">
+        <v>3015</v>
+      </c>
+      <c r="C1061" s="2" t="s">
+        <v>3016</v>
+      </c>
+      <c r="H1061" s="2" t="s">
+        <v>3017</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:8">
+      <c r="A1062" s="6">
+        <v>43948</v>
+      </c>
+      <c r="B1062" s="3" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C1062" s="2" t="s">
+        <v>3019</v>
+      </c>
+      <c r="H1062" s="2" t="s">
+        <v>3020</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:8">
+      <c r="A1063" s="6">
+        <v>43948</v>
+      </c>
+      <c r="B1063" s="3" t="s">
+        <v>3021</v>
+      </c>
+      <c r="C1063" s="2" t="s">
+        <v>3022</v>
+      </c>
+      <c r="H1063" s="2" t="s">
+        <v>3023</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:8">
+      <c r="A1064" s="6">
+        <v>43948</v>
+      </c>
+      <c r="B1064" s="3" t="s">
+        <v>3024</v>
+      </c>
+      <c r="C1064" s="2" t="s">
+        <v>3025</v>
+      </c>
+      <c r="H1064" s="2" t="s">
+        <v>3026</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:8">
+      <c r="A1065" s="6">
+        <v>43948</v>
+      </c>
+      <c r="B1065" s="3" t="s">
+        <v>3027</v>
+      </c>
+      <c r="C1065" s="2" t="s">
+        <v>3028</v>
+      </c>
+      <c r="H1065" s="2" t="s">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:8">
+      <c r="A1066" s="6">
+        <v>43948</v>
+      </c>
+      <c r="B1066" s="3" t="s">
+        <v>3030</v>
+      </c>
+      <c r="C1066" s="2" t="s">
+        <v>3031</v>
+      </c>
+      <c r="H1066" s="2" t="s">
+        <v>3032</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:8">
+      <c r="A1067" s="6">
+        <v>43948</v>
+      </c>
+      <c r="B1067" s="3" t="s">
+        <v>3033</v>
+      </c>
+      <c r="C1067" s="2" t="s">
+        <v>3034</v>
+      </c>
+      <c r="H1067" s="2" t="s">
+        <v>3035</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:8">
+      <c r="A1068" s="6">
+        <v>43948</v>
+      </c>
+      <c r="B1068" s="3" t="s">
+        <v>3036</v>
+      </c>
+      <c r="C1068" s="2" t="s">
+        <v>3037</v>
+      </c>
+      <c r="H1068" s="2" t="s">
+        <v>3038</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:8">
+      <c r="A1069" s="6">
+        <v>43948</v>
+      </c>
+      <c r="B1069" s="3" t="s">
+        <v>3039</v>
+      </c>
+      <c r="C1069" s="2" t="s">
+        <v>3040</v>
+      </c>
+      <c r="H1069" s="2" t="s">
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:8">
+      <c r="A1070" s="6">
+        <v>43948</v>
+      </c>
+      <c r="B1070" s="3" t="s">
+        <v>3042</v>
+      </c>
+      <c r="C1070" s="2" t="s">
+        <v>3043</v>
+      </c>
+      <c r="H1070" s="2" t="s">
+        <v>3044</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:8">
+      <c r="A1071" s="6">
+        <v>43948</v>
+      </c>
+      <c r="B1071" s="3" t="s">
+        <v>3045</v>
+      </c>
+      <c r="C1071" s="2" t="s">
+        <v>3046</v>
+      </c>
+      <c r="H1071" s="2" t="s">
+        <v>3047</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:8">
+      <c r="A1072" s="6">
+        <v>43948</v>
+      </c>
+      <c r="B1072" s="3" t="s">
+        <v>3048</v>
+      </c>
+      <c r="C1072" s="2" t="s">
+        <v>3049</v>
+      </c>
+      <c r="H1072" s="2" t="s">
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:8">
+      <c r="A1073" s="6">
+        <v>43948</v>
+      </c>
+      <c r="B1073" s="3" t="s">
+        <v>3051</v>
+      </c>
+      <c r="C1073" s="2" t="s">
+        <v>3052</v>
+      </c>
+      <c r="H1073" s="2" t="s">
+        <v>3053</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:8">
+      <c r="A1074" s="6">
+        <v>43949</v>
+      </c>
+      <c r="B1074" s="3" t="s">
+        <v>3054</v>
+      </c>
+      <c r="H1074" s="2" t="s">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:8">
+      <c r="A1075" s="6">
+        <v>43949</v>
+      </c>
+      <c r="B1075" s="3" t="s">
+        <v>3056</v>
+      </c>
+      <c r="H1075" s="2" t="s">
+        <v>3057</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:8">
+      <c r="A1076" s="6">
+        <v>43949</v>
+      </c>
+      <c r="B1076" s="3" t="s">
+        <v>3058</v>
+      </c>
+      <c r="C1076" s="2" t="s">
+        <v>3059</v>
+      </c>
+      <c r="H1076" s="2" t="s">
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:8">
+      <c r="A1077" s="6">
+        <v>43949</v>
+      </c>
+      <c r="B1077" s="3" t="s">
+        <v>3061</v>
+      </c>
+      <c r="C1077" s="2" t="s">
+        <v>3062</v>
+      </c>
+      <c r="H1077" s="2" t="s">
+        <v>3063</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:8">
+      <c r="A1078" s="6">
+        <v>43949</v>
+      </c>
+      <c r="B1078" s="3" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C1078" s="2" t="s">
+        <v>3064</v>
+      </c>
+      <c r="H1078" s="2" t="s">
+        <v>3065</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:8">
+      <c r="A1079" s="6">
+        <v>43949</v>
+      </c>
+      <c r="B1079" s="3" t="s">
+        <v>3066</v>
+      </c>
+      <c r="C1079" s="2" t="s">
+        <v>3067</v>
+      </c>
+      <c r="H1079" s="2" t="s">
+        <v>3068</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:8">
+      <c r="A1080" s="6">
+        <v>43949</v>
+      </c>
+      <c r="B1080" s="3" t="s">
+        <v>3069</v>
+      </c>
+      <c r="C1080" s="2" t="s">
+        <v>3070</v>
+      </c>
+      <c r="H1080" s="2" t="s">
+        <v>3071</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:8">
+      <c r="A1081" s="6">
+        <v>43949</v>
+      </c>
+      <c r="B1081" s="3" t="s">
+        <v>3072</v>
+      </c>
+      <c r="C1081" s="2" t="s">
+        <v>3073</v>
+      </c>
+      <c r="H1081" s="2" t="s">
+        <v>3074</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:8">
+      <c r="A1082" s="6">
+        <v>43949</v>
+      </c>
+      <c r="B1082" s="3" t="s">
+        <v>3075</v>
+      </c>
+      <c r="C1082" s="2" t="s">
+        <v>3076</v>
+      </c>
+      <c r="H1082" s="2" t="s">
+        <v>3077</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:8">
+      <c r="A1083" s="6">
+        <v>43949</v>
+      </c>
+      <c r="B1083" s="3" t="s">
+        <v>3078</v>
+      </c>
+      <c r="C1083" s="2" t="s">
+        <v>3079</v>
+      </c>
+      <c r="H1083" s="2" t="s">
+        <v>3080</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:8">
+      <c r="A1084" s="6">
+        <v>43949</v>
+      </c>
+      <c r="B1084" s="3" t="s">
+        <v>3081</v>
+      </c>
+      <c r="C1084" s="2" t="s">
+        <v>3082</v>
+      </c>
+      <c r="H1084" s="2" t="s">
+        <v>3083</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:8">
+      <c r="A1085" s="6">
+        <v>43949</v>
+      </c>
+      <c r="B1085" s="3" t="s">
+        <v>3084</v>
+      </c>
+      <c r="C1085" s="2" t="s">
+        <v>3085</v>
+      </c>
+      <c r="H1085" s="2" t="s">
+        <v>3086</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:3">
+      <c r="A1086" s="6">
+        <v>43949</v>
+      </c>
+      <c r="B1086" s="3" t="s">
+        <v>3087</v>
+      </c>
+      <c r="C1086" s="2" t="s">
+        <v>3088</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:3">
+      <c r="A1087" s="6">
+        <v>43949</v>
+      </c>
+      <c r="B1087" s="3" t="s">
+        <v>3089</v>
+      </c>
+      <c r="C1087" s="2" t="s">
+        <v>3090</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:8">
+      <c r="A1088" s="6">
+        <v>43949</v>
+      </c>
+      <c r="B1088" s="3" t="s">
+        <v>3091</v>
+      </c>
+      <c r="C1088" s="2" t="s">
+        <v>3092</v>
+      </c>
+      <c r="H1088" s="2" t="s">
+        <v>3093</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:8">
+      <c r="A1089" s="6">
+        <v>43949</v>
+      </c>
+      <c r="B1089" s="3" t="s">
+        <v>3094</v>
+      </c>
+      <c r="C1089" s="2" t="s">
+        <v>3095</v>
+      </c>
+      <c r="H1089" s="2" t="s">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:8">
+      <c r="A1090" s="6">
+        <v>43949</v>
+      </c>
+      <c r="B1090" s="3" t="s">
+        <v>1815</v>
+      </c>
+      <c r="C1090" s="2" t="s">
+        <v>3097</v>
+      </c>
+      <c r="H1090" s="2" t="s">
+        <v>3098</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:8">
+      <c r="A1091" s="6">
+        <v>43949</v>
+      </c>
+      <c r="B1091" s="3" t="s">
+        <v>3099</v>
+      </c>
+      <c r="C1091" s="2" t="s">
+        <v>3100</v>
+      </c>
+      <c r="H1091" s="2" t="s">
+        <v>3101</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:8">
+      <c r="A1092" s="6">
+        <v>43949</v>
+      </c>
+      <c r="B1092" s="3" t="s">
+        <v>2899</v>
+      </c>
+      <c r="C1092" s="2" t="s">
+        <v>3102</v>
+      </c>
+      <c r="H1092" s="2" t="s">
+        <v>3103</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:8">
+      <c r="A1093" s="6">
+        <v>43950</v>
+      </c>
+      <c r="B1093" s="3" t="s">
+        <v>3104</v>
+      </c>
+      <c r="C1093" s="2" t="s">
+        <v>3105</v>
+      </c>
+      <c r="H1093" s="2" t="s">
+        <v>3106</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:8">
+      <c r="A1094" s="6">
+        <v>43950</v>
+      </c>
+      <c r="B1094" s="3" t="s">
+        <v>3107</v>
+      </c>
+      <c r="C1094" s="2"/>
+      <c r="H1094" s="2" t="s">
+        <v>3108</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:8">
+      <c r="A1095" s="6">
+        <v>43950</v>
+      </c>
+      <c r="B1095" s="3" t="s">
+        <v>3109</v>
+      </c>
+      <c r="C1095" s="2"/>
+      <c r="H1095" s="2" t="s">
+        <v>3110</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:8">
+      <c r="A1096" s="6">
+        <v>43950</v>
+      </c>
+      <c r="B1096" s="3" t="s">
+        <v>3111</v>
+      </c>
+      <c r="C1096" s="2" t="s">
+        <v>3112</v>
+      </c>
+      <c r="H1096" s="2" t="s">
+        <v>3113</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:8">
+      <c r="A1097" s="6">
+        <v>43950</v>
+      </c>
+      <c r="B1097" s="3" t="s">
+        <v>3114</v>
+      </c>
+      <c r="C1097" s="2" t="s">
+        <v>3115</v>
+      </c>
+      <c r="H1097" s="2" t="s">
+        <v>3116</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:8">
+      <c r="A1098" s="6">
+        <v>43950</v>
+      </c>
+      <c r="B1098" s="3" t="s">
+        <v>3117</v>
+      </c>
+      <c r="C1098" s="2" t="s">
+        <v>3118</v>
+      </c>
+      <c r="H1098" s="2" t="s">
+        <v>3119</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:8">
+      <c r="A1099" s="6">
+        <v>43950</v>
+      </c>
+      <c r="B1099" s="3" t="s">
+        <v>3120</v>
+      </c>
+      <c r="C1099" s="2" t="s">
+        <v>3121</v>
+      </c>
+      <c r="H1099" s="2" t="s">
+        <v>3122</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:8">
+      <c r="A1100" s="6">
+        <v>43950</v>
+      </c>
+      <c r="B1100" s="3" t="s">
+        <v>2836</v>
+      </c>
+      <c r="C1100" s="2" t="s">
+        <v>3123</v>
+      </c>
+      <c r="H1100" s="2" t="s">
+        <v>3124</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:8">
+      <c r="A1101" s="6">
+        <v>43950</v>
+      </c>
+      <c r="B1101" s="3" t="s">
+        <v>3125</v>
+      </c>
+      <c r="C1101" s="2" t="s">
+        <v>3126</v>
+      </c>
+      <c r="H1101" s="2" t="s">
+        <v>3127</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:8">
+      <c r="A1102" s="6">
+        <v>43950</v>
+      </c>
+      <c r="B1102" s="3" t="s">
+        <v>3128</v>
+      </c>
+      <c r="C1102" s="2" t="s">
+        <v>3129</v>
+      </c>
+      <c r="H1102" s="2" t="s">
+        <v>3130</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:8">
+      <c r="A1103" s="6">
+        <v>43950</v>
+      </c>
+      <c r="B1103" s="3" t="s">
+        <v>3131</v>
+      </c>
+      <c r="C1103" s="2" t="s">
+        <v>3132</v>
+      </c>
+      <c r="H1103" s="2" t="s">
+        <v>3133</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:8">
+      <c r="A1104" s="6">
+        <v>43950</v>
+      </c>
+      <c r="B1104" s="3" t="s">
+        <v>3134</v>
+      </c>
+      <c r="C1104" s="2" t="s">
+        <v>3135</v>
+      </c>
+      <c r="H1104" s="2" t="s">
+        <v>3136</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:8">
+      <c r="A1105" s="6">
+        <v>43950</v>
+      </c>
+      <c r="B1105" s="3" t="s">
+        <v>3137</v>
+      </c>
+      <c r="C1105" s="2" t="s">
+        <v>3138</v>
+      </c>
+      <c r="H1105" s="2" t="s">
+        <v>3139</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:3">
+      <c r="A1106" s="6">
+        <v>43950</v>
+      </c>
+      <c r="B1106" s="3" t="s">
+        <v>3140</v>
+      </c>
+      <c r="C1106" s="2" t="s">
+        <v>3141</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:3">
+      <c r="A1107" s="6">
+        <v>43950</v>
+      </c>
+      <c r="B1107" s="3" t="s">
+        <v>3142</v>
+      </c>
+      <c r="C1107" s="2" t="s">
+        <v>3143</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:8">
+      <c r="A1108" s="6">
+        <v>43950</v>
+      </c>
+      <c r="B1108" s="3" t="s">
+        <v>3144</v>
+      </c>
+      <c r="C1108" s="2" t="s">
+        <v>3145</v>
+      </c>
+      <c r="H1108" s="2" t="s">
+        <v>3146</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:8">
+      <c r="A1109" s="6">
+        <v>43950</v>
+      </c>
+      <c r="B1109" s="3" t="s">
+        <v>2966</v>
+      </c>
+      <c r="C1109" s="2" t="s">
+        <v>3147</v>
+      </c>
+      <c r="H1109" s="2" t="s">
+        <v>3148</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:8">
+      <c r="A1110" s="6">
+        <v>43950</v>
+      </c>
+      <c r="B1110" s="3" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C1110" s="2" t="s">
+        <v>3150</v>
+      </c>
+      <c r="H1110" s="2" t="s">
+        <v>3151</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:8">
+      <c r="A1111" s="6">
+        <v>43950</v>
+      </c>
+      <c r="B1111" s="3" t="s">
+        <v>3152</v>
+      </c>
+      <c r="C1111" s="2" t="s">
+        <v>3153</v>
+      </c>
+      <c r="H1111" s="2" t="s">
+        <v>3154</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:8">
+      <c r="A1112" s="6">
+        <v>43950</v>
+      </c>
+      <c r="B1112" s="3" t="s">
+        <v>3155</v>
+      </c>
+      <c r="C1112" s="2" t="s">
+        <v>3156</v>
+      </c>
+      <c r="H1112" s="2" t="s">
+        <v>3157</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:8">
+      <c r="A1113" s="6">
+        <v>43950</v>
+      </c>
+      <c r="B1113" s="3" t="s">
+        <v>3158</v>
+      </c>
+      <c r="C1113" s="2" t="s">
+        <v>3159</v>
+      </c>
+      <c r="H1113" s="2" t="s">
+        <v>3160</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:8">
+      <c r="A1114" s="6">
+        <v>43950</v>
+      </c>
+      <c r="B1114" s="3" t="s">
+        <v>3161</v>
+      </c>
+      <c r="C1114" s="2" t="s">
+        <v>3162</v>
+      </c>
+      <c r="H1114" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:8">
+      <c r="A1115" s="6">
+        <v>43950</v>
+      </c>
+      <c r="B1115" s="3" t="s">
+        <v>3164</v>
+      </c>
+      <c r="C1115" s="2" t="s">
+        <v>3165</v>
+      </c>
+      <c r="H1115" s="2" t="s">
+        <v>3166</v>
       </c>
     </row>
   </sheetData>

--- a/工作日志/2020年工作日志-王中意（新）.xlsx
+++ b/工作日志/2020年工作日志-王中意（新）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20925" windowHeight="9780"/>
+    <workbookView windowWidth="15525" windowHeight="25680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3377" uniqueCount="3167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3449" uniqueCount="3237">
   <si>
     <t>日期</t>
   </si>
@@ -9518,6 +9518,216 @@
   </si>
   <si>
     <t>http://m.warslave.com.cn/bdfzl/1556.html</t>
+  </si>
+  <si>
+    <t>哪种方法更准确地检测白斑症状</t>
+  </si>
+  <si>
+    <t>https://www.taolch.com/bdfzz/332.html</t>
+  </si>
+  <si>
+    <t>https://m.taolch.com/bdfzz/332.html</t>
+  </si>
+  <si>
+    <t>青少年如何治疗白班</t>
+  </si>
+  <si>
+    <t>https://www.taolch.com/bdfrq/333.html</t>
+  </si>
+  <si>
+    <t>https://m.taolch.com/bdfrq/333.html</t>
+  </si>
+  <si>
+    <t>孕妇患有白癜风时应注意什么</t>
+  </si>
+  <si>
+    <t>https://www.taolch.com/bdfrq/334.html</t>
+  </si>
+  <si>
+    <t>https://m.taolch.com/bdfrq/334.html</t>
+  </si>
+  <si>
+    <t>如何判断孩子是否患有白斑</t>
+  </si>
+  <si>
+    <t>https://www.taolch.com/bdfzd/335.html</t>
+  </si>
+  <si>
+    <t>https://m.taolch.com/bdfzd/335.html</t>
+  </si>
+  <si>
+    <t>如何治疗白斑才能取得快速效果</t>
+  </si>
+  <si>
+    <t>https://www.taolch.com/bdfzl/336.html</t>
+  </si>
+  <si>
+    <t>https://m.taolch.com/bdfzl/336.html</t>
+  </si>
+  <si>
+    <t>如何科学有效地治疗白斑</t>
+  </si>
+  <si>
+    <t>https://www.taolch.com/bdfzl/337.html</t>
+  </si>
+  <si>
+    <t>https://m.taolch.com/bdfzl/337.html</t>
+  </si>
+  <si>
+    <t>刚分娩的女性如何预防白癜风</t>
+  </si>
+  <si>
+    <t>https://www.izwf.com/bdf/bdfcs/4858.html</t>
+  </si>
+  <si>
+    <t>https://m.izwf.com/bdf/bdfcs/4858.html</t>
+  </si>
+  <si>
+    <t>白癞风患者应对自己的皮肤如何护理</t>
+  </si>
+  <si>
+    <t>https://www.izwf.com/bdf/bdfzl/4857.html</t>
+  </si>
+  <si>
+    <t>https://m.izwf.com/bdf/bdfzl/4857.html</t>
+  </si>
+  <si>
+    <t>怀孕的母亲应如何防止白癜风传染给孩子</t>
+  </si>
+  <si>
+    <t>https://www.izwf.com/bdf/bdfzl/4856.html</t>
+  </si>
+  <si>
+    <t>https://m.izwf.com/bdf/bdfzl/4856.html</t>
+  </si>
+  <si>
+    <t>如何远离白癜风的抑郁心理呢</t>
+  </si>
+  <si>
+    <t>https://www.izwf.com/bdf/bdfzl/4855.html</t>
+  </si>
+  <si>
+    <t>https://m.izwf.com/bdf/bdfzl/4855.html</t>
+  </si>
+  <si>
+    <t>如何更好地治疗女性白斑</t>
+  </si>
+  <si>
+    <t>https://www.izwf.com/bdf/bdfzl/4854.html</t>
+  </si>
+  <si>
+    <t>https://m.izwf.com/bdf/bdfzl/4854.html</t>
+  </si>
+  <si>
+    <t>https://www.izwf.com/bdf/bdfzl/4853.html</t>
+  </si>
+  <si>
+    <t>https://m.izwf.com/bdf/bdfzl/4853.html</t>
+  </si>
+  <si>
+    <t>老人有白癞风应该注意什么</t>
+  </si>
+  <si>
+    <t>https://www.bdfyyy.com/bdf/bdfcs/4846.html</t>
+  </si>
+  <si>
+    <t>https://3g.bdfyyy.com/bdf/bdfcs/4846.html</t>
+  </si>
+  <si>
+    <t>如果孩子患有白斑，父母应该怎么办</t>
+  </si>
+  <si>
+    <t>https://www.bdfyyy.com/bdf/bdfcs/4845.html</t>
+  </si>
+  <si>
+    <t>https://3g.bdfyyy.com/bdf/bdfcs/4845.html</t>
+  </si>
+  <si>
+    <t>如何减少白癜风孕妇的遗传可能性</t>
+  </si>
+  <si>
+    <t>https://www.bdfyyy.com/bdf/bdfcs/4844.html</t>
+  </si>
+  <si>
+    <t>https://3g.bdfyyy.com/bdf/bdfcs/4844.html</t>
+  </si>
+  <si>
+    <t>腿上的白癜风哪种方法有效</t>
+  </si>
+  <si>
+    <t>https://www.bdfyyy.com/bdf/bdfzl/4843.html</t>
+  </si>
+  <si>
+    <t>https://3g.bdfyyy.com/bdf/bdfzl/4843.html</t>
+  </si>
+  <si>
+    <t>婴儿上有白点吗?是白癜风吗?</t>
+  </si>
+  <si>
+    <t>https://www.bdfyyy.com/bdf/bdfzl/4842.html</t>
+  </si>
+  <si>
+    <t>https://3g.bdfyyy.com/bdf/bdfzl/4842.html</t>
+  </si>
+  <si>
+    <t>贵州白癜风医院308nm准分子治疗技术</t>
+  </si>
+  <si>
+    <t>https://www.bdfyyy.com/bdf/bdfzl/4841.html</t>
+  </si>
+  <si>
+    <t>https://3g.bdfyyy.com/bdf/bdfzl/4841.html</t>
+  </si>
+  <si>
+    <t>青少年白癞风应该怎么治疗</t>
+  </si>
+  <si>
+    <t>https://www.bb454.com/bdf/bdfzl/8170.html</t>
+  </si>
+  <si>
+    <t>https://m.bb454.com/bdf/bdfzl/8170.html</t>
+  </si>
+  <si>
+    <t>https://www.bb454.com/bdf/bdfzl/8169.html</t>
+  </si>
+  <si>
+    <t>https://m.bb454.com/bdf/bdfzl/8169.html</t>
+  </si>
+  <si>
+    <t>女性容易患白癜风的三个主要原因是什么</t>
+  </si>
+  <si>
+    <t>https://www.bb454.com/bdf/bdfzl/8168.html</t>
+  </si>
+  <si>
+    <t>https://m.bb454.com/bdf/bdfzl/8168.html</t>
+  </si>
+  <si>
+    <t>很难完全治好白斑的原因是什么</t>
+  </si>
+  <si>
+    <t>https://www.bb454.com/bdf/bdfzl/8167.html</t>
+  </si>
+  <si>
+    <t>https://m.bb454.com/bdf/bdfzl/8167.html</t>
+  </si>
+  <si>
+    <t>女性白斑患者换药时应注意的事项</t>
+  </si>
+  <si>
+    <t>https://www.bb454.com/bdf/bdfcs/8166.html</t>
+  </si>
+  <si>
+    <t>https://m.bb454.com/bdf/bdfcs/8166.html</t>
+  </si>
+  <si>
+    <t>患有白癜风的老年人有哪些危害</t>
+  </si>
+  <si>
+    <t>https://www.bb454.com/bdf/bdfcs/8165.html</t>
+  </si>
+  <si>
+    <t>https://m.bb454.com/bdf/bdfcs/8165.html</t>
   </si>
 </sst>
 </file>
@@ -9525,9 +9735,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
@@ -9614,19 +9824,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9639,7 +9848,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9653,6 +9870,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -9662,6 +9887,46 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9688,53 +9953,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -9744,15 +9962,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9785,7 +9995,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9797,7 +10007,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9810,6 +10038,48 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9851,18 +10121,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -9881,12 +10139,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -9899,25 +10151,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9929,37 +10163,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9988,11 +10198,76 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10015,73 +10290,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10093,10 +10303,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -10105,133 +10315,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
@@ -10379,7 +10589,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{f2bb0819-c74f-4314-9636-03d353dbf035}" diskRevisions="1" revisionId="1997" version="29">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{6240d876-27d5-4c43-9335-a0f4ce50b209}" diskRevisions="1" revisionId="2099" version="30">
   <header guid="{b051279f-1af8-48fb-a4a1-27283c1d6e07}" dateTime="2020-04-08T10:53:55" maxSheetId="2" userName="Administrator" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
@@ -10525,6 +10735,11 @@
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
+  <header guid="{6240d876-27d5-4c43-9335-a0f4ce50b209}" dateTime="2020-05-03T15:41:51" maxSheetId="2" userName="Administrator" r:id="rId30" minRId="1998" maxRId="2099">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -39302,6 +39517,1443 @@
     <nc r="A816" t="n">
       <v>43930</v>
     </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog30.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="1" sqref="B1116" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <name val="宋体"/>
+        <sz val="12"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="B1117" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <name val="宋体"/>
+        <sz val="12"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="B1118" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <name val="宋体"/>
+        <sz val="12"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="B1119" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <name val="宋体"/>
+        <sz val="12"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="B1120" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <name val="宋体"/>
+        <sz val="12"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="B1121" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <name val="宋体"/>
+        <sz val="12"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment/>
+    </dxf>
+  </rfmt>
+  <rcc rId="1998" sId="1" odxf="1" dxf="1">
+    <nc r="C1116" t="inlineStr">
+      <is>
+        <t>https://www.taolch.com/bdfzz/332.html</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <name val="宋体"/>
+        <sz val="12"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment/>
+    </odxf>
+    <ndxf>
+      <font>
+        <name val="宋体"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment horizontal="fill"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="1999" sId="1" odxf="1" dxf="1">
+    <nc r="C1117" t="inlineStr">
+      <is>
+        <t>https://www.taolch.com/bdfrq/333.html</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <name val="宋体"/>
+        <sz val="12"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment/>
+    </odxf>
+    <ndxf>
+      <font>
+        <name val="宋体"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment horizontal="fill"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="2000" sId="1" odxf="1" dxf="1">
+    <nc r="C1118" t="inlineStr">
+      <is>
+        <t>https://www.taolch.com/bdfrq/334.html</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <name val="宋体"/>
+        <sz val="12"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment/>
+    </odxf>
+    <ndxf>
+      <font>
+        <name val="宋体"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment horizontal="fill"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="2001" sId="1" odxf="1" dxf="1">
+    <nc r="C1119" t="inlineStr">
+      <is>
+        <t>https://www.taolch.com/bdfzd/335.html</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <name val="宋体"/>
+        <sz val="12"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment/>
+    </odxf>
+    <ndxf>
+      <font>
+        <name val="宋体"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment horizontal="fill"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="2002" sId="1" odxf="1" dxf="1">
+    <nc r="C1120" t="inlineStr">
+      <is>
+        <t>https://www.taolch.com/bdfzl/336.html</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <name val="宋体"/>
+        <sz val="12"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment/>
+    </odxf>
+    <ndxf>
+      <font>
+        <name val="宋体"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment horizontal="fill"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="2003" sId="1" odxf="1" dxf="1">
+    <nc r="C1121" t="inlineStr">
+      <is>
+        <t>https://www.taolch.com/bdfzl/337.html</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <name val="宋体"/>
+        <sz val="12"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment/>
+    </odxf>
+    <ndxf>
+      <font>
+        <name val="宋体"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment horizontal="fill"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="2004" sId="1" odxf="1" dxf="1">
+    <nc r="H1116" t="inlineStr">
+      <is>
+        <t>https://m.taolch.com/bdfzz/332.html</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <name val="宋体"/>
+        <sz val="12"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment/>
+    </odxf>
+    <ndxf>
+      <font>
+        <name val="宋体"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment horizontal="fill"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="2005" sId="1" odxf="1" dxf="1">
+    <nc r="H1117" t="inlineStr">
+      <is>
+        <t>https://m.taolch.com/bdfrq/333.html</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <name val="宋体"/>
+        <sz val="12"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment/>
+    </odxf>
+    <ndxf>
+      <font>
+        <name val="宋体"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment horizontal="fill"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="2006" sId="1" odxf="1" dxf="1">
+    <nc r="H1118" t="inlineStr">
+      <is>
+        <t>https://m.taolch.com/bdfrq/334.html</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <name val="宋体"/>
+        <sz val="12"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment/>
+    </odxf>
+    <ndxf>
+      <font>
+        <name val="宋体"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment horizontal="fill"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="2007" sId="1" odxf="1" dxf="1">
+    <nc r="H1119" t="inlineStr">
+      <is>
+        <t>https://m.taolch.com/bdfzd/335.html</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <name val="宋体"/>
+        <sz val="12"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment/>
+    </odxf>
+    <ndxf>
+      <font>
+        <name val="宋体"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment horizontal="fill"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="2008" sId="1" odxf="1" dxf="1">
+    <nc r="H1120" t="inlineStr">
+      <is>
+        <t>https://m.taolch.com/bdfzl/336.html</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <name val="宋体"/>
+        <sz val="12"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment/>
+    </odxf>
+    <ndxf>
+      <font>
+        <name val="宋体"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment horizontal="fill"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="1" sqref="H1121" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <name val="宋体"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment horizontal="fill"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="H1122" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <name val="宋体"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment horizontal="fill"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="2009" sId="1">
+    <nc r="H1121" t="inlineStr">
+      <is>
+        <t>https://m.taolch.com/bdfzl/337.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2010" sId="1" odxf="1" dxf="1">
+    <nc r="H1122" t="inlineStr">
+      <is>
+        <t>https://m.izwf.com/bdf/bdfcs/4858.html</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <name val="宋体"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment horizontal="fill"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <name val="宋体"/>
+        <sz val="12"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment/>
+    </ndxf>
+  </rcc>
+  <rcc rId="2011" sId="1">
+    <nc r="H1123" t="inlineStr">
+      <is>
+        <t>https://m.izwf.com/bdf/bdfzl/4857.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2012" sId="1">
+    <nc r="H1124" t="inlineStr">
+      <is>
+        <t>https://m.izwf.com/bdf/bdfzl/4856.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2013" sId="1">
+    <nc r="H1125" t="inlineStr">
+      <is>
+        <t>https://m.izwf.com/bdf/bdfzl/4855.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2014" sId="1">
+    <nc r="H1126" t="inlineStr">
+      <is>
+        <t>https://m.izwf.com/bdf/bdfzl/4854.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2015" sId="1">
+    <nc r="H1127" t="inlineStr">
+      <is>
+        <t>https://m.izwf.com/bdf/bdfzl/4853.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2016" sId="1">
+    <nc r="C1122" t="inlineStr">
+      <is>
+        <t>https://www.izwf.com/bdf/bdfcs/4858.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2017" sId="1">
+    <nc r="C1123" t="inlineStr">
+      <is>
+        <t>https://www.izwf.com/bdf/bdfzl/4857.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2018" sId="1">
+    <nc r="C1124" t="inlineStr">
+      <is>
+        <t>https://www.izwf.com/bdf/bdfzl/4856.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2019" sId="1">
+    <nc r="C1125" t="inlineStr">
+      <is>
+        <t>https://www.izwf.com/bdf/bdfzl/4855.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2020" sId="1">
+    <nc r="C1126" t="inlineStr">
+      <is>
+        <t>https://www.izwf.com/bdf/bdfzl/4854.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2021" sId="1">
+    <nc r="C1127" t="inlineStr">
+      <is>
+        <t>https://www.izwf.com/bdf/bdfzl/4853.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="2022" sId="1" ref="A1128:XFD1128" action="deleteRow">
+    <rfmt sheetId="1" xfDxf="1" sqref="$A1128:$XFD1128" start="0" length="2147483647"/>
+    <rfmt sheetId="1" sqref="A1128" start="0" length="2147483647">
+      <dxf>
+        <font>
+          <name val="宋体"/>
+          <charset val="134"/>
+          <family val="0"/>
+          <b val="0"/>
+          <i val="0"/>
+          <strike val="0"/>
+          <color auto="1"/>
+          <sz val="12"/>
+          <u val="none"/>
+        </font>
+        <fill>
+          <patternFill patternType="none"/>
+        </fill>
+        <alignment vertical="center" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+        <border diagonalUp="1" diagonalDown="1">
+          <left/>
+          <right/>
+          <top/>
+          <bottom/>
+          <diagonal/>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="B1128" start="0" length="2147483647">
+      <dxf>
+        <font>
+          <name val="宋体"/>
+          <charset val="134"/>
+          <family val="0"/>
+          <b val="0"/>
+          <i val="0"/>
+          <strike val="0"/>
+          <color auto="1"/>
+          <sz val="11"/>
+          <u val="none"/>
+        </font>
+        <fill>
+          <patternFill patternType="none"/>
+        </fill>
+        <alignment horizontal="fill" vertical="center" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+        <border diagonalUp="1" diagonalDown="1">
+          <left/>
+          <right/>
+          <top/>
+          <bottom/>
+          <diagonal/>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="C1128" start="0" length="2147483647">
+      <dxf>
+        <font>
+          <name val="宋体"/>
+          <charset val="134"/>
+          <family val="0"/>
+          <b val="0"/>
+          <i val="0"/>
+          <strike val="0"/>
+          <color auto="1"/>
+          <sz val="12"/>
+          <u val="none"/>
+        </font>
+        <fill>
+          <patternFill patternType="none"/>
+        </fill>
+        <alignment vertical="center" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+        <border diagonalUp="1" diagonalDown="1">
+          <left/>
+          <right/>
+          <top/>
+          <bottom/>
+          <diagonal/>
+        </border>
+      </dxf>
+    </rfmt>
+    <rcc rId="0" sId="1">
+      <nc r="B1128" t="inlineStr">
+        <is>
+          <t>帝国网站管理系统 － 最安全、最稳定的开源CMS系统</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C1128" t="inlineStr">
+        <is>
+          <t>https://3g.bdfyyy.com/e/KLialj1adm/admin.php?ehash_HBiw=gs5cH3JPMF5GHoScgdkv</t>
+        </is>
+      </nc>
+    </rcc>
+  </rrc>
+  <rcc rId="2023" sId="1">
+    <nc r="H1128" t="inlineStr">
+      <is>
+        <t>https://3g.bdfyyy.com/bdf/bdfcs/4846.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2024" sId="1">
+    <nc r="H1129" t="inlineStr">
+      <is>
+        <t>https://3g.bdfyyy.com/bdf/bdfcs/4845.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2025" sId="1">
+    <nc r="H1130" t="inlineStr">
+      <is>
+        <t>https://3g.bdfyyy.com/bdf/bdfcs/4844.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2026" sId="1">
+    <nc r="H1131" t="inlineStr">
+      <is>
+        <t>https://3g.bdfyyy.com/bdf/bdfzl/4843.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2027" sId="1">
+    <nc r="H1132" t="inlineStr">
+      <is>
+        <t>https://3g.bdfyyy.com/bdf/bdfzl/4842.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2028" sId="1">
+    <nc r="H1133" t="inlineStr">
+      <is>
+        <t>https://3g.bdfyyy.com/bdf/bdfzl/4841.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2029" sId="1">
+    <nc r="C1128" t="inlineStr">
+      <is>
+        <t>https://www.bdfyyy.com/bdf/bdfcs/4846.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2030" sId="1">
+    <nc r="C1129" t="inlineStr">
+      <is>
+        <t>https://www.bdfyyy.com/bdf/bdfcs/4845.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2031" sId="1">
+    <nc r="C1130" t="inlineStr">
+      <is>
+        <t>https://www.bdfyyy.com/bdf/bdfcs/4844.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2032" sId="1">
+    <nc r="C1131" t="inlineStr">
+      <is>
+        <t>https://www.bdfyyy.com/bdf/bdfzl/4843.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2033" sId="1">
+    <nc r="C1132" t="inlineStr">
+      <is>
+        <t>https://www.bdfyyy.com/bdf/bdfzl/4842.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2034" sId="1">
+    <nc r="C1133" t="inlineStr">
+      <is>
+        <t>https://www.bdfyyy.com/bdf/bdfzl/4841.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2035" sId="1">
+    <nc r="B1140" t="inlineStr">
+      <is>
+        <t>患有白癜风的老年人有哪些危害_贵州白癜风医院</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2036" sId="1">
+    <nc r="C1140" t="inlineStr">
+      <is>
+        <t>https://m.bb454.com/bdf/bdfcs/8165.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2037" sId="1">
+    <nc r="B1152" t="inlineStr">
+      <is>
+        <t>患有白癜风的老年人有哪些危害_贵州白癜风皮肤病医院</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2038" sId="1">
+    <nc r="C1152" t="inlineStr">
+      <is>
+        <t>https://www.bb454.com/bdf/bdfcs/8165.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="2039" sId="1" ref="A1134:XFD1134" action="deleteRow">
+    <rfmt sheetId="1" xfDxf="1" sqref="$A1134:$XFD1134" start="0" length="2147483647"/>
+    <rfmt sheetId="1" sqref="B1134" start="0" length="2147483647">
+      <dxf>
+        <font>
+          <name val="宋体"/>
+          <charset val="134"/>
+          <family val="0"/>
+          <b val="0"/>
+          <i val="0"/>
+          <strike val="0"/>
+          <color auto="1"/>
+          <sz val="11"/>
+          <u val="none"/>
+        </font>
+        <fill>
+          <patternFill patternType="none"/>
+        </fill>
+        <alignment horizontal="fill" vertical="center" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+        <border diagonalUp="1" diagonalDown="1">
+          <left/>
+          <right/>
+          <top/>
+          <bottom/>
+          <diagonal/>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="C1134" start="0" length="2147483647">
+      <dxf>
+        <font>
+          <name val="宋体"/>
+          <charset val="134"/>
+          <family val="0"/>
+          <b val="0"/>
+          <i val="0"/>
+          <strike val="0"/>
+          <color auto="1"/>
+          <sz val="12"/>
+          <u val="none"/>
+        </font>
+        <fill>
+          <patternFill patternType="none"/>
+        </fill>
+        <alignment vertical="center" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+        <border diagonalUp="1" diagonalDown="1">
+          <left/>
+          <right/>
+          <top/>
+          <bottom/>
+          <diagonal/>
+        </border>
+      </dxf>
+    </rfmt>
+    <rcc rId="0" sId="1">
+      <nc r="B1134" t="inlineStr">
+        <is>
+          <t>帝国网站管理系统 － 最安全、最稳定的开源CMS系统</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C1134" t="inlineStr">
+        <is>
+          <t>https://m.bb454.com/e/admin/admin.php?ehash_PbJy=Ok8OZrjGMO27D1M7n5J4</t>
+        </is>
+      </nc>
+    </rcc>
+  </rrc>
+  <rcc rId="2040" sId="1">
+    <nc r="H1134" t="inlineStr">
+      <is>
+        <t>https://m.bb454.com/bdf/bdfzl/8170.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2041" sId="1">
+    <nc r="H1135" t="inlineStr">
+      <is>
+        <t>https://m.bb454.com/bdf/bdfzl/8169.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2042" sId="1">
+    <nc r="H1136" t="inlineStr">
+      <is>
+        <t>https://m.bb454.com/bdf/bdfzl/8168.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2043" sId="1">
+    <nc r="H1137" t="inlineStr">
+      <is>
+        <t>https://m.bb454.com/bdf/bdfzl/8167.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2044" sId="1">
+    <nc r="H1138" t="inlineStr">
+      <is>
+        <t>https://m.bb454.com/bdf/bdfcs/8166.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2045" sId="1">
+    <nc r="H1139" t="inlineStr">
+      <is>
+        <t>https://m.bb454.com/bdf/bdfcs/8165.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2046" sId="1">
+    <nc r="C1134" t="inlineStr">
+      <is>
+        <t>https://www.bb454.com/bdf/bdfzl/8170.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2047" sId="1">
+    <nc r="C1135" t="inlineStr">
+      <is>
+        <t>https://www.bb454.com/bdf/bdfzl/8169.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2048" sId="1">
+    <nc r="C1136" t="inlineStr">
+      <is>
+        <t>https://www.bb454.com/bdf/bdfzl/8168.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2049" sId="1">
+    <nc r="C1137" t="inlineStr">
+      <is>
+        <t>https://www.bb454.com/bdf/bdfzl/8167.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2050" sId="1">
+    <nc r="C1138" t="inlineStr">
+      <is>
+        <t>https://www.bb454.com/bdf/bdfcs/8166.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2051" sId="1">
+    <nc r="C1139" t="inlineStr">
+      <is>
+        <t>https://www.bb454.com/bdf/bdfcs/8165.html</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2052" sId="1">
+    <nc r="B1116" t="inlineStr">
+      <is>
+        <t>哪种方法更准确地检测白斑症状</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2053" sId="1">
+    <nc r="B1117" t="inlineStr">
+      <is>
+        <t>青少年如何治疗白班</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2054" sId="1">
+    <nc r="B1118" t="inlineStr">
+      <is>
+        <t>孕妇患有白癜风时应注意什么</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2055" sId="1">
+    <nc r="B1119" t="inlineStr">
+      <is>
+        <t>如何判断孩子是否患有白斑</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2056" sId="1">
+    <nc r="B1120" t="inlineStr">
+      <is>
+        <t>如何治疗白斑才能取得快速效果</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2057" sId="1">
+    <nc r="B1121" t="inlineStr">
+      <is>
+        <t>如何科学有效地治疗白斑</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2058" sId="1">
+    <nc r="B1122" t="inlineStr">
+      <is>
+        <t>刚分娩的女性如何预防白癜风</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2059" sId="1">
+    <nc r="B1123" t="inlineStr">
+      <is>
+        <t>白癞风患者应对自己的皮肤如何护理</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2060" sId="1">
+    <nc r="B1124" t="inlineStr">
+      <is>
+        <t>怀孕的母亲应如何防止白癜风传染给孩子</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2061" sId="1">
+    <nc r="B1125" t="inlineStr">
+      <is>
+        <t>如何远离白癜风的抑郁心理呢</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2062" sId="1">
+    <nc r="B1126" t="inlineStr">
+      <is>
+        <t>如何更好地治疗女性白斑</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2063" sId="1">
+    <nc r="B1127" t="inlineStr">
+      <is>
+        <t>如何治疗白斑才能取得快速效果</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2064" sId="1">
+    <nc r="B1128" t="inlineStr">
+      <is>
+        <t>老人有白癞风应该注意什么</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2065" sId="1">
+    <nc r="B1129" t="inlineStr">
+      <is>
+        <t>如果孩子患有白斑，父母应该怎么办</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2066" sId="1">
+    <nc r="B1130" t="inlineStr">
+      <is>
+        <t>如何减少白癜风孕妇的遗传可能性</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2067" sId="1">
+    <nc r="B1131" t="inlineStr">
+      <is>
+        <t>腿上的白癜风哪种方法有效</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2068" sId="1">
+    <nc r="B1132" t="inlineStr">
+      <is>
+        <t>婴儿上有白点吗?是白癜风吗?</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2069" sId="1">
+    <nc r="B1133" t="inlineStr">
+      <is>
+        <t>贵州白癜风医院308nm准分子治疗技术</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2070" sId="1">
+    <nc r="B1134" t="inlineStr">
+      <is>
+        <t>青少年白癞风应该怎么治疗</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2071" sId="1">
+    <nc r="B1135" t="inlineStr">
+      <is>
+        <t>如何科学有效地治疗白斑</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2072" sId="1">
+    <nc r="B1136" t="inlineStr">
+      <is>
+        <t>女性容易患白癜风的三个主要原因是什么</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2073" sId="1">
+    <nc r="B1137" t="inlineStr">
+      <is>
+        <t>很难完全治好白斑的原因是什么</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2074" sId="1">
+    <nc r="B1138" t="inlineStr">
+      <is>
+        <t>女性白斑患者换药时应注意的事项</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2075" sId="1">
+    <nc r="B1139" t="inlineStr">
+      <is>
+        <t>患有白癜风的老年人有哪些危害</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="A1116" start="0" length="2147483647">
+    <dxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="2076" sId="1" numFmtId="45">
+    <nc r="A1116" t="n">
+      <v>43952</v>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="A1117" start="0" length="2147483647">
+    <dxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="2077" sId="1" numFmtId="45">
+    <nc r="A1117" t="n">
+      <v>43952</v>
+    </nc>
+  </rcc>
+  <rcc rId="2078" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1118" t="n">
+      <v>43953</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="2079" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1119" t="n">
+      <v>43953</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="2080" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1120" t="n">
+      <v>43954</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="2081" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1121" t="n">
+      <v>43954</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="2082" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1122" t="n">
+      <v>43952</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="2083" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1123" t="n">
+      <v>43952</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="2084" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1124" t="n">
+      <v>43953</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="2085" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1125" t="n">
+      <v>43953</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="2086" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1126" t="n">
+      <v>43954</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="2087" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1127" t="n">
+      <v>43954</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="2088" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1128" t="n">
+      <v>43952</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="2089" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1129" t="n">
+      <v>43952</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="2090" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1130" t="n">
+      <v>43953</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="2091" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1131" t="n">
+      <v>43953</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="2092" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1132" t="n">
+      <v>43954</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="2093" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1133" t="n">
+      <v>43954</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="2094" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1134" t="n">
+      <v>43952</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="2095" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1135" t="n">
+      <v>43952</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="2096" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1136" t="n">
+      <v>43953</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="2097" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1137" t="n">
+      <v>43953</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="2098" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1138" t="n">
+      <v>43954</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="2099" sId="1" odxf="1" dxf="1" numFmtId="45">
+    <nc r="A1139" t="n">
+      <v>43954</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="58" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </ndxf>
   </rcc>
 </revisions>
 </file>
@@ -41986,12 +43638,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L1115"/>
+  <dimension ref="A1:L1139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A724" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1091" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H1117" sqref="H1117"/>
+      <selection pane="bottomLeft" activeCell="C1145" sqref="C1145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -57845,7 +59497,6 @@
       <c r="B1094" s="3" t="s">
         <v>3107</v>
       </c>
-      <c r="C1094" s="2"/>
       <c r="H1094" s="2" t="s">
         <v>3108</v>
       </c>
@@ -57857,7 +59508,6 @@
       <c r="B1095" s="3" t="s">
         <v>3109</v>
       </c>
-      <c r="C1095" s="2"/>
       <c r="H1095" s="2" t="s">
         <v>3110</v>
       </c>
@@ -58134,6 +59784,342 @@
       </c>
       <c r="H1115" s="2" t="s">
         <v>3166</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:8">
+      <c r="A1116" s="6">
+        <v>43952</v>
+      </c>
+      <c r="B1116" s="2" t="s">
+        <v>3167</v>
+      </c>
+      <c r="C1116" s="3" t="s">
+        <v>3168</v>
+      </c>
+      <c r="H1116" s="3" t="s">
+        <v>3169</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:8">
+      <c r="A1117" s="6">
+        <v>43952</v>
+      </c>
+      <c r="B1117" s="2" t="s">
+        <v>3170</v>
+      </c>
+      <c r="C1117" s="3" t="s">
+        <v>3171</v>
+      </c>
+      <c r="H1117" s="3" t="s">
+        <v>3172</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:8">
+      <c r="A1118" s="6">
+        <v>43953</v>
+      </c>
+      <c r="B1118" s="2" t="s">
+        <v>3173</v>
+      </c>
+      <c r="C1118" s="3" t="s">
+        <v>3174</v>
+      </c>
+      <c r="H1118" s="3" t="s">
+        <v>3175</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:8">
+      <c r="A1119" s="6">
+        <v>43953</v>
+      </c>
+      <c r="B1119" s="2" t="s">
+        <v>3176</v>
+      </c>
+      <c r="C1119" s="3" t="s">
+        <v>3177</v>
+      </c>
+      <c r="H1119" s="3" t="s">
+        <v>3178</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:8">
+      <c r="A1120" s="6">
+        <v>43954</v>
+      </c>
+      <c r="B1120" s="2" t="s">
+        <v>3179</v>
+      </c>
+      <c r="C1120" s="3" t="s">
+        <v>3180</v>
+      </c>
+      <c r="H1120" s="3" t="s">
+        <v>3181</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:8">
+      <c r="A1121" s="6">
+        <v>43954</v>
+      </c>
+      <c r="B1121" s="2" t="s">
+        <v>3182</v>
+      </c>
+      <c r="C1121" s="3" t="s">
+        <v>3183</v>
+      </c>
+      <c r="H1121" s="3" t="s">
+        <v>3184</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:8">
+      <c r="A1122" s="6">
+        <v>43952</v>
+      </c>
+      <c r="B1122" s="3" t="s">
+        <v>3185</v>
+      </c>
+      <c r="C1122" s="2" t="s">
+        <v>3186</v>
+      </c>
+      <c r="H1122" s="2" t="s">
+        <v>3187</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:8">
+      <c r="A1123" s="6">
+        <v>43952</v>
+      </c>
+      <c r="B1123" s="3" t="s">
+        <v>3188</v>
+      </c>
+      <c r="C1123" s="2" t="s">
+        <v>3189</v>
+      </c>
+      <c r="H1123" s="2" t="s">
+        <v>3190</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:8">
+      <c r="A1124" s="6">
+        <v>43953</v>
+      </c>
+      <c r="B1124" s="3" t="s">
+        <v>3191</v>
+      </c>
+      <c r="C1124" s="2" t="s">
+        <v>3192</v>
+      </c>
+      <c r="H1124" s="2" t="s">
+        <v>3193</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:8">
+      <c r="A1125" s="6">
+        <v>43953</v>
+      </c>
+      <c r="B1125" s="3" t="s">
+        <v>3194</v>
+      </c>
+      <c r="C1125" s="2" t="s">
+        <v>3195</v>
+      </c>
+      <c r="H1125" s="2" t="s">
+        <v>3196</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:8">
+      <c r="A1126" s="6">
+        <v>43954</v>
+      </c>
+      <c r="B1126" s="3" t="s">
+        <v>3197</v>
+      </c>
+      <c r="C1126" s="2" t="s">
+        <v>3198</v>
+      </c>
+      <c r="H1126" s="2" t="s">
+        <v>3199</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:8">
+      <c r="A1127" s="6">
+        <v>43954</v>
+      </c>
+      <c r="B1127" s="3" t="s">
+        <v>3179</v>
+      </c>
+      <c r="C1127" s="2" t="s">
+        <v>3200</v>
+      </c>
+      <c r="H1127" s="2" t="s">
+        <v>3201</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:8">
+      <c r="A1128" s="6">
+        <v>43952</v>
+      </c>
+      <c r="B1128" s="3" t="s">
+        <v>3202</v>
+      </c>
+      <c r="C1128" s="2" t="s">
+        <v>3203</v>
+      </c>
+      <c r="H1128" s="2" t="s">
+        <v>3204</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:8">
+      <c r="A1129" s="6">
+        <v>43952</v>
+      </c>
+      <c r="B1129" s="3" t="s">
+        <v>3205</v>
+      </c>
+      <c r="C1129" s="2" t="s">
+        <v>3206</v>
+      </c>
+      <c r="H1129" s="2" t="s">
+        <v>3207</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:8">
+      <c r="A1130" s="6">
+        <v>43953</v>
+      </c>
+      <c r="B1130" s="3" t="s">
+        <v>3208</v>
+      </c>
+      <c r="C1130" s="2" t="s">
+        <v>3209</v>
+      </c>
+      <c r="H1130" s="2" t="s">
+        <v>3210</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:8">
+      <c r="A1131" s="6">
+        <v>43953</v>
+      </c>
+      <c r="B1131" s="3" t="s">
+        <v>3211</v>
+      </c>
+      <c r="C1131" s="2" t="s">
+        <v>3212</v>
+      </c>
+      <c r="H1131" s="2" t="s">
+        <v>3213</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:8">
+      <c r="A1132" s="6">
+        <v>43954</v>
+      </c>
+      <c r="B1132" s="3" t="s">
+        <v>3214</v>
+      </c>
+      <c r="C1132" s="2" t="s">
+        <v>3215</v>
+      </c>
+      <c r="H1132" s="2" t="s">
+        <v>3216</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:8">
+      <c r="A1133" s="6">
+        <v>43954</v>
+      </c>
+      <c r="B1133" s="3" t="s">
+        <v>3217</v>
+      </c>
+      <c r="C1133" s="2" t="s">
+        <v>3218</v>
+      </c>
+      <c r="H1133" s="2" t="s">
+        <v>3219</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:8">
+      <c r="A1134" s="6">
+        <v>43952</v>
+      </c>
+      <c r="B1134" s="3" t="s">
+        <v>3220</v>
+      </c>
+      <c r="C1134" s="2" t="s">
+        <v>3221</v>
+      </c>
+      <c r="H1134" s="2" t="s">
+        <v>3222</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:8">
+      <c r="A1135" s="6">
+        <v>43952</v>
+      </c>
+      <c r="B1135" s="3" t="s">
+        <v>3182</v>
+      </c>
+      <c r="C1135" s="2" t="s">
+        <v>3223</v>
+      </c>
+      <c r="H1135" s="2" t="s">
+        <v>3224</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:8">
+      <c r="A1136" s="6">
+        <v>43953</v>
+      </c>
+      <c r="B1136" s="3" t="s">
+        <v>3225</v>
+      </c>
+      <c r="C1136" s="2" t="s">
+        <v>3226</v>
+      </c>
+      <c r="H1136" s="2" t="s">
+        <v>3227</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:8">
+      <c r="A1137" s="6">
+        <v>43953</v>
+      </c>
+      <c r="B1137" s="3" t="s">
+        <v>3228</v>
+      </c>
+      <c r="C1137" s="2" t="s">
+        <v>3229</v>
+      </c>
+      <c r="H1137" s="2" t="s">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:8">
+      <c r="A1138" s="6">
+        <v>43954</v>
+      </c>
+      <c r="B1138" s="3" t="s">
+        <v>3231</v>
+      </c>
+      <c r="C1138" s="2" t="s">
+        <v>3232</v>
+      </c>
+      <c r="H1138" s="2" t="s">
+        <v>3233</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:8">
+      <c r="A1139" s="6">
+        <v>43954</v>
+      </c>
+      <c r="B1139" s="3" t="s">
+        <v>3234</v>
+      </c>
+      <c r="C1139" s="2" t="s">
+        <v>3235</v>
+      </c>
+      <c r="H1139" s="2" t="s">
+        <v>3236</v>
       </c>
     </row>
   </sheetData>
